--- a/PBS Result.xlsx
+++ b/PBS Result.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="410" yWindow="110" windowWidth="13380" windowHeight="4340" activeTab="8"/>
+    <workbookView xWindow="410" yWindow="110" windowWidth="13380" windowHeight="4340" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="TL" sheetId="4" r:id="rId1"/>
@@ -15,18 +15,19 @@
     <sheet name="Std" sheetId="11" r:id="rId6"/>
     <sheet name="Scale" sheetId="12" r:id="rId7"/>
     <sheet name="Scale_best" sheetId="13" r:id="rId8"/>
-    <sheet name="Scale_best (2)" sheetId="14" r:id="rId9"/>
+    <sheet name="SMOTE" sheetId="14" r:id="rId9"/>
+    <sheet name="Feat Sel" sheetId="15" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Feat Sel'!$A$2:$P$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Raw!$A$2:$N$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Rob!$A$2:$N$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Scale!$A$2:$O$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Scale_best!$A$2:$N$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Scale_best (2)'!$A$2:$O$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">SMOTE!$A$2:$O$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Std!$A$2:$N$11</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -166,8 +167,42 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Gabriella Tanubrata</author>
+  </authors>
+  <commentList>
+    <comment ref="F6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriella Tanubrata:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+max iter 200 --&gt; 1000 failed to converge</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="127">
   <si>
     <t>Student cari alternatif case final project</t>
   </si>
@@ -513,9 +548,6 @@
   </si>
   <si>
     <t>Robust</t>
-  </si>
-  <si>
-    <t>slight</t>
   </si>
   <si>
     <t>Standard</t>
@@ -559,6 +591,21 @@
   </si>
   <si>
     <t>SMOTE</t>
+  </si>
+  <si>
+    <t>no diff</t>
+  </si>
+  <si>
+    <t>robust/std no diff</t>
+  </si>
+  <si>
+    <t>Delta Recall 1</t>
+  </si>
+  <si>
+    <t>Delta Test Score (%)</t>
+  </si>
+  <si>
+    <t>Feature Selection</t>
   </si>
 </sst>
 </file>
@@ -720,7 +767,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -894,41 +941,22 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFDBEEF3"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDBEEF3"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1850,6 +1878,563 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
+    <col min="2" max="3" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6328125" customWidth="1"/>
+    <col min="17" max="17" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="68" t="e">
+        <f t="shared" ref="G1:N1" si="0">AVERAGE(G3:G7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H1" s="68" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I1" s="68" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J1" s="68" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K1" s="68" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L1" s="68" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M1" s="68" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N1" s="68" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O1" s="27"/>
+      <c r="P1" s="68" t="e">
+        <f>AVERAGE(P3:P7)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="75" customFormat="1">
+      <c r="A2" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="74"/>
+      <c r="P2" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="T2" s="75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="32.5" customHeight="1">
+      <c r="A3" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="24">
+        <v>20</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50" t="e">
+        <f>(2*(I3*J3))/(I3+J3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50" t="e">
+        <f>(2*(L3*M3))/(L3+M3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="P3" s="55" t="e">
+        <f>SUM(G3:N3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q3" s="50">
+        <v>0.6</v>
+      </c>
+      <c r="R3" s="72">
+        <f>(M3-Q3)/Q3</f>
+        <v>-1</v>
+      </c>
+      <c r="S3" s="73">
+        <v>90.27</v>
+      </c>
+      <c r="T3" s="72">
+        <f>(H3-S3)/S3</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="32.5" customHeight="1">
+      <c r="A4" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="24">
+        <v>20</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="49"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50" t="e">
+        <f>(2*(I4*J4))/(I4+J4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50" t="e">
+        <f>(2*(L4*M4))/(L4+M4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="P4" s="55" t="e">
+        <f>SUM(G4:N4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q4" s="50">
+        <v>0.79</v>
+      </c>
+      <c r="R4" s="72">
+        <f t="shared" ref="R4:R7" si="1">(M4-Q4)/Q4</f>
+        <v>-1</v>
+      </c>
+      <c r="S4" s="73">
+        <v>87.23</v>
+      </c>
+      <c r="T4" s="72">
+        <f t="shared" ref="T4:T7" si="2">(H4-S4)/S4</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="32.5" customHeight="1">
+      <c r="A5" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="24">
+        <v>20</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50" t="e">
+        <f>(2*(I5*J5))/(I5+J5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50" t="e">
+        <f>(2*(L5*M5))/(L5+M5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="55" t="e">
+        <f>SUM(G5:N5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" s="50">
+        <v>0.64</v>
+      </c>
+      <c r="R5" s="72">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="S5" s="73">
+        <v>86.13</v>
+      </c>
+      <c r="T5" s="72">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="32.5" customHeight="1">
+      <c r="A6" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="24">
+        <v>20</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50" t="e">
+        <f>(2*(I6*J6))/(I6+J6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50" t="e">
+        <f>(2*(L6*M6))/(L6+M6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O6" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="P6" s="55" t="e">
+        <f>SUM(G6:N6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q6" s="50">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="R6" s="72">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="S6" s="73">
+        <v>87.75</v>
+      </c>
+      <c r="T6" s="72">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="32.5" customHeight="1">
+      <c r="A7" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="24">
+        <v>20</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50" t="e">
+        <f>(2*(I7*J7))/(I7+J7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50" t="e">
+        <f>(2*(L7*M7))/(L7+M7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O7" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7" s="55" t="e">
+        <f>SUM(G7:N7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q7" s="50">
+        <v>0.61</v>
+      </c>
+      <c r="R7" s="72">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="S7" s="73">
+        <v>87.39</v>
+      </c>
+      <c r="T7" s="72">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="H8" s="51"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="H9" s="51"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:P7">
+    <filterColumn colId="0"/>
+    <filterColumn colId="1"/>
+    <filterColumn colId="2"/>
+    <filterColumn colId="14"/>
+  </autoFilter>
+  <conditionalFormatting sqref="G3:G7">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H7">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I7">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J7">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K7">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L7">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M7">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N7">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P7">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T7">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R7">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
@@ -2303,7 +2888,7 @@
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2327,40 +2912,40 @@
     <row r="1" spans="1:14">
       <c r="E1" s="51">
         <f>AVERAGE(E3:E11)</f>
-        <v>88.39</v>
+        <v>88.61666666666666</v>
       </c>
       <c r="F1" s="51">
         <f t="shared" ref="F1:N1" si="0">AVERAGE(F3:F11)</f>
-        <v>84.095555555555563</v>
+        <v>84.428888888888892</v>
       </c>
       <c r="G1" s="51">
         <f t="shared" si="0"/>
-        <v>0.88777777777777778</v>
+        <v>0.89111111111111108</v>
       </c>
       <c r="H1" s="51">
         <f t="shared" si="0"/>
-        <v>0.92666666666666686</v>
+        <v>0.9144444444444445</v>
       </c>
       <c r="I1" s="51">
         <f t="shared" si="0"/>
-        <v>0.90292176865676987</v>
+        <v>0.8990925064083104</v>
       </c>
       <c r="J1" s="51">
         <f t="shared" si="0"/>
-        <v>0.65555555555555556</v>
+        <v>0.64333333333333331</v>
       </c>
       <c r="K1" s="51">
         <f t="shared" si="0"/>
-        <v>0.3888888888888889</v>
+        <v>0.41444444444444445</v>
       </c>
       <c r="L1" s="51">
         <f t="shared" si="0"/>
-        <v>0.42374756870387226</v>
+        <v>0.45460334982235445</v>
       </c>
       <c r="M1" s="51"/>
       <c r="N1" s="51">
         <f t="shared" si="0"/>
-        <v>176.67111378180508</v>
+        <v>177.26258474511954</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2389,7 +2974,7 @@
         <v>89</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>90</v>
@@ -2398,7 +2983,7 @@
         <v>91</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N2" s="33" t="s">
         <v>92</v>
@@ -2411,7 +2996,7 @@
       <c r="B3" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="47" t="s">
         <v>96</v>
       </c>
       <c r="D3" s="41" t="s">
@@ -2456,7 +3041,7 @@
       <c r="B4" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="47" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -2466,7 +3051,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="39">
-        <v>86.66</v>
+        <v>87.35</v>
       </c>
       <c r="G4" s="38">
         <v>0.92</v>
@@ -2479,21 +3064,21 @@
         <v>0.92</v>
       </c>
       <c r="J4" s="39">
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="K4" s="39">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="L4" s="39">
         <f t="shared" si="2"/>
-        <v>0.58495726495726486</v>
+        <v>0.6</v>
       </c>
       <c r="M4" s="46" t="s">
         <v>102</v>
       </c>
       <c r="N4" s="52">
         <f t="shared" si="3"/>
-        <v>191.17495726495724</v>
+        <v>191.90999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="33" customHeight="1">
@@ -2503,7 +3088,7 @@
       <c r="B5" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="47" t="s">
         <v>100</v>
       </c>
       <c r="D5" s="41" t="s">
@@ -2513,34 +3098,34 @@
         <v>100</v>
       </c>
       <c r="F5" s="39">
-        <v>90.23</v>
+        <v>90.43</v>
       </c>
       <c r="G5" s="38">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="H5" s="39">
         <v>0.97</v>
       </c>
       <c r="I5" s="39">
         <f t="shared" si="1"/>
-        <v>0.93904255319148944</v>
+        <v>0.94433862433862426</v>
       </c>
       <c r="J5" s="39">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="K5" s="39">
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L5" s="39">
         <f t="shared" si="2"/>
-        <v>0.62717557251908407</v>
+        <v>0.6451127819548873</v>
       </c>
       <c r="M5" s="46" t="s">
         <v>102</v>
       </c>
       <c r="N5" s="52">
         <f t="shared" si="3"/>
-        <v>194.98621812571059</v>
+        <v>195.23945140629351</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="33" customHeight="1">
@@ -2550,7 +3135,7 @@
       <c r="B6" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="44" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="43" t="s">
@@ -2595,7 +3180,7 @@
       <c r="B7" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="44" t="s">
         <v>105</v>
       </c>
       <c r="D7" s="42" t="s">
@@ -2642,7 +3227,7 @@
       <c r="B8" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="44" t="s">
         <v>107</v>
       </c>
       <c r="D8" s="44" t="s">
@@ -2687,7 +3272,7 @@
       <c r="B9" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="44" t="s">
         <v>107</v>
       </c>
       <c r="D9" s="44" t="s">
@@ -2732,42 +3317,42 @@
       <c r="B10" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="47" t="s">
         <v>110</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="38">
-        <v>86.07</v>
+        <v>88.11</v>
       </c>
       <c r="F10" s="39">
-        <v>85.81</v>
+        <v>87.92</v>
       </c>
       <c r="G10" s="38">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="H10" s="39">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="I10" s="39">
         <f t="shared" si="1"/>
-        <v>0.92473118279569899</v>
+        <v>0.88497175141242934</v>
       </c>
       <c r="J10" s="39">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="K10" s="39">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="L10" s="39">
         <f t="shared" si="2"/>
-        <v>0.19738317757009344</v>
+        <v>0.44210526315789478</v>
       </c>
       <c r="M10" s="46"/>
       <c r="N10" s="52">
         <f t="shared" si="3"/>
-        <v>175.93211436036583</v>
+        <v>180.2670770145703</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="33" customHeight="1">
@@ -2777,11 +3362,11 @@
       <c r="B11" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="47" t="s">
         <v>110</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="38">
         <v>59.44</v>
@@ -3122,7 +3707,7 @@
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3146,15 +3731,15 @@
     <row r="1" spans="1:14">
       <c r="E1" s="51">
         <f>AVERAGE(E3:E11)</f>
-        <v>91.053333333333342</v>
+        <v>91.054444444444442</v>
       </c>
       <c r="F1" s="51">
         <f t="shared" ref="F1:L1" si="0">AVERAGE(F3:F11)</f>
-        <v>87.938888888888897</v>
+        <v>87.988888888888894</v>
       </c>
       <c r="G1" s="51">
         <f t="shared" si="0"/>
-        <v>0.90777777777777779</v>
+        <v>0.90888888888888886</v>
       </c>
       <c r="H1" s="51">
         <f t="shared" si="0"/>
@@ -3162,7 +3747,7 @@
       </c>
       <c r="I1" s="51">
         <f t="shared" si="0"/>
-        <v>0.92985400234725324</v>
+        <v>0.93040655489980595</v>
       </c>
       <c r="J1" s="51">
         <f t="shared" si="0"/>
@@ -3170,16 +3755,16 @@
       </c>
       <c r="K1" s="51">
         <f t="shared" si="0"/>
-        <v>0.47777777777777775</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="L1" s="51">
         <f t="shared" si="0"/>
-        <v>0.54279934011486308</v>
+        <v>0.54427293376283215</v>
       </c>
       <c r="M1" s="51"/>
       <c r="N1" s="51">
         <f>AVERAGE(N3:N11)</f>
-        <v>183.50043112023988</v>
+        <v>183.55690171088486</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3208,7 +3793,7 @@
         <v>89</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>90</v>
@@ -3217,7 +3802,7 @@
         <v>91</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N2" s="33" t="s">
         <v>92</v>
@@ -3285,34 +3870,34 @@
         <v>100</v>
       </c>
       <c r="F4" s="39">
-        <v>86.78</v>
+        <v>87.39</v>
       </c>
       <c r="G4" s="38">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="H4" s="39">
         <v>0.92</v>
       </c>
       <c r="I4" s="39">
         <f t="shared" si="1"/>
-        <v>0.92</v>
+        <v>0.92497297297297298</v>
       </c>
       <c r="J4" s="39">
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="K4" s="39">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="L4" s="39">
         <f t="shared" si="2"/>
-        <v>0.58495726495726486</v>
+        <v>0.60495867768595046</v>
       </c>
       <c r="M4" s="46" t="s">
         <v>102</v>
       </c>
       <c r="N4" s="52">
         <f t="shared" si="3"/>
-        <v>191.29495726495725</v>
+        <v>191.9799316506589</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="33" customHeight="1">
@@ -3329,10 +3914,10 @@
         <v>101</v>
       </c>
       <c r="E5" s="38">
-        <v>99.99</v>
+        <v>100</v>
       </c>
       <c r="F5" s="39">
-        <v>90.63</v>
+        <v>90.47</v>
       </c>
       <c r="G5" s="38">
         <v>0.92</v>
@@ -3345,21 +3930,21 @@
         <v>0.94433862433862426</v>
       </c>
       <c r="J5" s="39">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="K5" s="39">
         <v>0.55000000000000004</v>
       </c>
       <c r="L5" s="39">
         <f t="shared" si="2"/>
-        <v>0.6518518518518519</v>
+        <v>0.6451127819548873</v>
       </c>
       <c r="M5" s="46" t="s">
         <v>102</v>
       </c>
       <c r="N5" s="52">
         <f t="shared" si="3"/>
-        <v>195.4561904761905</v>
+        <v>195.2794514062935</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="33" customHeight="1">
@@ -3559,7 +4144,7 @@
         <v>110</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="38">
         <v>91.47</v>
@@ -3606,7 +4191,7 @@
         <v>110</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="38">
         <v>84.62</v>
@@ -3945,7 +4530,7 @@
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3973,36 +4558,36 @@
       </c>
       <c r="F1" s="51">
         <f t="shared" ref="F1:L1" si="0">AVERAGE(F3:F11)</f>
-        <v>87.97</v>
+        <v>88.046666666666681</v>
       </c>
       <c r="G1" s="51">
         <f t="shared" si="0"/>
-        <v>0.91222222222222227</v>
+        <v>0.91333333333333344</v>
       </c>
       <c r="H1" s="51">
         <f t="shared" si="0"/>
-        <v>0.94999999999999984</v>
+        <v>0.95111111111111102</v>
       </c>
       <c r="I1" s="51">
         <f t="shared" si="0"/>
-        <v>0.93026340556225129</v>
+        <v>0.93137451667336235</v>
       </c>
       <c r="J1" s="51">
         <f t="shared" si="0"/>
-        <v>0.68333333333333335</v>
+        <v>0.68555555555555558</v>
       </c>
       <c r="K1" s="51">
         <f t="shared" si="0"/>
-        <v>0.51444444444444448</v>
+        <v>0.51777777777777778</v>
       </c>
       <c r="L1" s="51">
         <f t="shared" si="0"/>
-        <v>0.57407501257738947</v>
+        <v>0.57707542405384171</v>
       </c>
       <c r="M1" s="51"/>
       <c r="N1" s="51">
         <f>AVERAGE(N3:N11)</f>
-        <v>185.78767175147297</v>
+        <v>185.87622771850499</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4031,7 +4616,7 @@
         <v>89</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>90</v>
@@ -4040,7 +4625,7 @@
         <v>91</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N2" s="33" t="s">
         <v>92</v>
@@ -4048,7 +4633,7 @@
     </row>
     <row r="3" spans="1:14" ht="33" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>95</v>
@@ -4093,7 +4678,7 @@
     </row>
     <row r="4" spans="1:14" ht="33" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>95</v>
@@ -4108,39 +4693,39 @@
         <v>100</v>
       </c>
       <c r="F4" s="39">
-        <v>86.9</v>
+        <v>87.43</v>
       </c>
       <c r="G4" s="38">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="H4" s="39">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="I4" s="39">
         <f t="shared" si="1"/>
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="J4" s="39">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="K4" s="39">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="L4" s="39">
         <f t="shared" si="2"/>
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="M4" s="46" t="s">
         <v>102</v>
       </c>
       <c r="N4" s="52">
         <f t="shared" si="3"/>
-        <v>191.42999999999998</v>
+        <v>192.05000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="33" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>95</v>
@@ -4155,7 +4740,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="39">
-        <v>90.31</v>
+        <v>90.47</v>
       </c>
       <c r="G5" s="38">
         <v>0.92</v>
@@ -4171,23 +4756,23 @@
         <v>0.79</v>
       </c>
       <c r="K5" s="39">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L5" s="39">
         <f t="shared" si="2"/>
-        <v>0.64150375939849624</v>
+        <v>0.64850746268656723</v>
       </c>
       <c r="M5" s="46" t="s">
         <v>102</v>
       </c>
       <c r="N5" s="52">
         <f t="shared" si="3"/>
-        <v>195.11584238373709</v>
+        <v>195.2928460870252</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="33" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>95</v>
@@ -4232,7 +4817,7 @@
     </row>
     <row r="7" spans="1:14" ht="33" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>95</v>
@@ -4279,7 +4864,7 @@
     </row>
     <row r="8" spans="1:14" ht="33" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>95</v>
@@ -4324,7 +4909,7 @@
     </row>
     <row r="9" spans="1:14" ht="33" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="40" t="s">
         <v>95</v>
@@ -4369,7 +4954,7 @@
     </row>
     <row r="10" spans="1:14" ht="33" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="40" t="s">
         <v>95</v>
@@ -4378,7 +4963,7 @@
         <v>110</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="38">
         <v>99.57</v>
@@ -4416,7 +5001,7 @@
     </row>
     <row r="11" spans="1:14" ht="33" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="40" t="s">
         <v>95</v>
@@ -4425,7 +5010,7 @@
         <v>110</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="38">
         <v>99.68</v>
@@ -4768,7 +5353,7 @@
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4792,39 +5377,39 @@
     <row r="1" spans="1:15">
       <c r="E1" s="51">
         <f>AVERAGE(E3:E29)</f>
-        <v>90.898888888888905</v>
+        <v>90.97481481481482</v>
       </c>
       <c r="F1" s="51">
         <f t="shared" ref="F1:N1" si="0">AVERAGE(F3:F29)</f>
-        <v>86.668148148148148</v>
+        <v>86.82148148148147</v>
       </c>
       <c r="G1" s="51">
         <f t="shared" si="0"/>
-        <v>0.90259259259259272</v>
+        <v>0.9044444444444445</v>
       </c>
       <c r="H1" s="51">
         <f t="shared" si="0"/>
-        <v>0.94370370370370382</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="I1" s="51">
         <f t="shared" si="0"/>
-        <v>0.92101305885542506</v>
+        <v>0.92029119266049308</v>
       </c>
       <c r="J1" s="51">
         <f t="shared" si="0"/>
-        <v>0.67814814814814806</v>
+        <v>0.67481481481481476</v>
       </c>
       <c r="K1" s="51">
         <f t="shared" si="0"/>
-        <v>0.46037037037037043</v>
+        <v>0.47074074074074079</v>
       </c>
       <c r="L1" s="51">
         <f t="shared" si="0"/>
-        <v>0.51354064046537495</v>
+        <v>0.52531723587967616</v>
       </c>
       <c r="N1" s="51">
         <f t="shared" si="0"/>
-        <v>181.9864055511726</v>
+        <v>182.23190472483643</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4853,7 +5438,7 @@
         <v>89</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>90</v>
@@ -4862,7 +5447,7 @@
         <v>91</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N2" s="33" t="s">
         <v>92</v>
@@ -4897,7 +5482,6 @@
         <v>0.97</v>
       </c>
       <c r="I3" s="39">
-        <f t="shared" ref="I3:I29" si="1">(2*(G3*H3))/(G3+H3)</f>
         <v>0.92827956989247318</v>
       </c>
       <c r="J3" s="39">
@@ -4907,12 +5491,11 @@
         <v>0.39</v>
       </c>
       <c r="L3" s="39">
-        <f t="shared" ref="L3:L29" si="2">(2*(J3*K3))/(J3+K3)</f>
         <v>0.51079646017699121</v>
       </c>
       <c r="M3" s="46"/>
       <c r="N3" s="52">
-        <f t="shared" ref="N3:N29" si="3">SUM(E3:L3)</f>
+        <f t="shared" ref="N3:N29" si="1">SUM(E3:L3)</f>
         <v>180.85907603006947</v>
       </c>
       <c r="O3" s="53"/>
@@ -4934,7 +5517,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="39">
-        <v>86.66</v>
+        <v>87.35</v>
       </c>
       <c r="G4" s="38">
         <v>0.92</v>
@@ -4943,25 +5526,23 @@
         <v>0.92</v>
       </c>
       <c r="I4" s="39">
-        <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
       <c r="J4" s="39">
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="K4" s="39">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="L4" s="39">
-        <f t="shared" si="2"/>
-        <v>0.58495726495726486</v>
+        <v>0.6</v>
       </c>
       <c r="M4" s="46" t="s">
         <v>102</v>
       </c>
       <c r="N4" s="52">
-        <f t="shared" si="3"/>
-        <v>191.17495726495724</v>
+        <f t="shared" si="1"/>
+        <v>191.90999999999994</v>
       </c>
       <c r="O4" s="53"/>
     </row>
@@ -4982,34 +5563,32 @@
         <v>100</v>
       </c>
       <c r="F5" s="50">
-        <v>90.23</v>
+        <v>90.43</v>
       </c>
       <c r="G5" s="49">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="H5" s="50">
         <v>0.97</v>
       </c>
       <c r="I5" s="50">
-        <f t="shared" si="1"/>
-        <v>0.93904255319148944</v>
+        <v>0.94433862433862426</v>
       </c>
       <c r="J5" s="50">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="K5" s="50">
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L5" s="50">
-        <f t="shared" si="2"/>
-        <v>0.62717557251908407</v>
+        <v>0.6451127819548873</v>
       </c>
       <c r="M5" s="54" t="s">
         <v>102</v>
       </c>
       <c r="N5" s="55">
-        <f t="shared" si="3"/>
-        <v>194.98621812571059</v>
+        <f t="shared" si="1"/>
+        <v>195.23945140629351</v>
       </c>
       <c r="O5" s="56"/>
     </row>
@@ -5039,7 +5618,6 @@
         <v>0.97</v>
       </c>
       <c r="I6" s="39">
-        <f t="shared" si="1"/>
         <v>0.92281081081081084</v>
       </c>
       <c r="J6" s="39">
@@ -5049,12 +5627,11 @@
         <v>0.34</v>
       </c>
       <c r="L6" s="39">
-        <f t="shared" si="2"/>
         <v>0.44880000000000003</v>
       </c>
       <c r="M6" s="46"/>
       <c r="N6" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>180.26161081081082</v>
       </c>
       <c r="O6" s="53"/>
@@ -5085,7 +5662,6 @@
         <v>0.9</v>
       </c>
       <c r="I7" s="39">
-        <f t="shared" si="1"/>
         <v>0.9147540983606558</v>
       </c>
       <c r="J7" s="39">
@@ -5095,14 +5671,13 @@
         <v>0.64</v>
       </c>
       <c r="L7" s="39">
-        <f t="shared" si="2"/>
         <v>0.5915966386554623</v>
       </c>
       <c r="M7" s="46" t="s">
         <v>102</v>
       </c>
       <c r="N7" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>175.4863507370161</v>
       </c>
       <c r="O7" s="53"/>
@@ -5133,7 +5708,6 @@
         <v>0.98</v>
       </c>
       <c r="I8" s="39">
-        <f t="shared" si="1"/>
         <v>0.93283422459893039</v>
       </c>
       <c r="J8" s="39">
@@ -5143,12 +5717,11 @@
         <v>0.39</v>
       </c>
       <c r="L8" s="39">
-        <f t="shared" si="2"/>
         <v>0.52859504132231405</v>
       </c>
       <c r="M8" s="46"/>
       <c r="N8" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>181.90142926592122</v>
       </c>
       <c r="O8" s="53"/>
@@ -5179,7 +5752,6 @@
         <v>1</v>
       </c>
       <c r="I9" s="39">
-        <f t="shared" si="1"/>
         <v>0.91304347826086962</v>
       </c>
       <c r="J9" s="39">
@@ -5189,12 +5761,11 @@
         <v>0.02</v>
       </c>
       <c r="L9" s="39">
-        <f t="shared" si="2"/>
         <v>3.870967741935484E-2</v>
       </c>
       <c r="M9" s="46"/>
       <c r="N9" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>186.20175315568025</v>
       </c>
       <c r="O9" s="53"/>
@@ -5210,38 +5781,36 @@
         <v>110</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="38">
-        <v>86.07</v>
+        <v>88.11</v>
       </c>
       <c r="F10" s="39">
-        <v>85.81</v>
+        <v>87.92</v>
       </c>
       <c r="G10" s="38">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="H10" s="39">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="I10" s="39">
-        <f t="shared" si="1"/>
-        <v>0.92473118279569899</v>
+        <v>0.88497175141242934</v>
       </c>
       <c r="J10" s="39">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="K10" s="39">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="L10" s="39">
-        <f t="shared" si="2"/>
-        <v>0.19738317757009344</v>
+        <v>0.44210526315789478</v>
       </c>
       <c r="M10" s="46"/>
       <c r="N10" s="52">
-        <f t="shared" si="3"/>
-        <v>175.93211436036583</v>
+        <f t="shared" si="1"/>
+        <v>180.2670770145703</v>
       </c>
       <c r="O10" s="53"/>
     </row>
@@ -5256,7 +5825,7 @@
         <v>110</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="38">
         <v>59.44</v>
@@ -5271,7 +5840,6 @@
         <v>0.63</v>
       </c>
       <c r="I11" s="39">
-        <f t="shared" si="1"/>
         <v>0.73080000000000001</v>
       </c>
       <c r="J11" s="39">
@@ -5281,14 +5849,13 @@
         <v>0.5</v>
       </c>
       <c r="L11" s="39">
-        <f t="shared" si="2"/>
         <v>0.28571428571428575</v>
       </c>
       <c r="M11" s="46" t="s">
         <v>102</v>
       </c>
       <c r="N11" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>123.23651428571429</v>
       </c>
       <c r="O11" s="53"/>
@@ -5319,7 +5886,6 @@
         <v>0.97</v>
       </c>
       <c r="I12" s="61">
-        <f t="shared" si="1"/>
         <v>0.93368983957219243</v>
       </c>
       <c r="J12" s="61">
@@ -5329,16 +5895,15 @@
         <v>0.4</v>
       </c>
       <c r="L12" s="61">
-        <f t="shared" si="2"/>
         <v>0.52173913043478271</v>
       </c>
       <c r="M12" s="62"/>
       <c r="N12" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>181.25542897000699</v>
       </c>
       <c r="O12" s="64" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="32.5" hidden="1" customHeight="1">
@@ -5358,34 +5923,32 @@
         <v>100</v>
       </c>
       <c r="F13" s="39">
-        <v>86.78</v>
+        <v>87.39</v>
       </c>
       <c r="G13" s="38">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="H13" s="39">
         <v>0.92</v>
       </c>
       <c r="I13" s="39">
-        <f t="shared" si="1"/>
-        <v>0.92</v>
+        <v>0.92497297297297298</v>
       </c>
       <c r="J13" s="39">
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="K13" s="39">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="L13" s="39">
-        <f t="shared" si="2"/>
-        <v>0.58495726495726486</v>
+        <v>0.60495867768595046</v>
       </c>
       <c r="M13" s="46" t="s">
         <v>102</v>
       </c>
       <c r="N13" s="52">
-        <f t="shared" si="3"/>
-        <v>191.29495726495725</v>
+        <f t="shared" si="1"/>
+        <v>191.9799316506589</v>
       </c>
       <c r="O13" s="53"/>
     </row>
@@ -5403,10 +5966,10 @@
         <v>101</v>
       </c>
       <c r="E14" s="60">
-        <v>99.99</v>
+        <v>100</v>
       </c>
       <c r="F14" s="61">
-        <v>90.63</v>
+        <v>90.47</v>
       </c>
       <c r="G14" s="60">
         <v>0.92</v>
@@ -5415,28 +5978,26 @@
         <v>0.97</v>
       </c>
       <c r="I14" s="61">
-        <f t="shared" si="1"/>
         <v>0.94433862433862426</v>
       </c>
       <c r="J14" s="61">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="K14" s="61">
         <v>0.55000000000000004</v>
       </c>
       <c r="L14" s="61">
-        <f t="shared" si="2"/>
-        <v>0.6518518518518519</v>
+        <v>0.6451127819548873</v>
       </c>
       <c r="M14" s="62" t="s">
         <v>102</v>
       </c>
       <c r="N14" s="63">
-        <f t="shared" si="3"/>
-        <v>195.4561904761905</v>
+        <f t="shared" si="1"/>
+        <v>195.2794514062935</v>
       </c>
       <c r="O14" s="64" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="32.5" customHeight="1">
@@ -5465,7 +6026,6 @@
         <v>0.95</v>
       </c>
       <c r="I15" s="61">
-        <f t="shared" si="1"/>
         <v>0.93475935828876999</v>
       </c>
       <c r="J15" s="61">
@@ -5475,18 +6035,17 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="L15" s="61">
-        <f t="shared" si="2"/>
         <v>0.60813008130081314</v>
       </c>
       <c r="M15" s="62" t="s">
         <v>102</v>
       </c>
       <c r="N15" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>184.69288943958958</v>
       </c>
       <c r="O15" s="64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="32.5" hidden="1" customHeight="1">
@@ -5515,7 +6074,6 @@
         <v>0.88</v>
       </c>
       <c r="I16" s="39">
-        <f t="shared" si="1"/>
         <v>0.90430939226519336</v>
       </c>
       <c r="J16" s="39">
@@ -5525,14 +6083,13 @@
         <v>0.66</v>
       </c>
       <c r="L16" s="39">
-        <f t="shared" si="2"/>
         <v>0.57538461538461538</v>
       </c>
       <c r="M16" s="46" t="s">
         <v>102</v>
       </c>
       <c r="N16" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>172.52969400764979</v>
       </c>
       <c r="O16" s="53"/>
@@ -5563,7 +6120,6 @@
         <v>0.98</v>
       </c>
       <c r="I17" s="61">
-        <f t="shared" si="1"/>
         <v>0.93829787234042561</v>
       </c>
       <c r="J17" s="61">
@@ -5573,16 +6129,15 @@
         <v>0.42</v>
       </c>
       <c r="L17" s="61">
-        <f t="shared" si="2"/>
         <v>0.54600000000000004</v>
       </c>
       <c r="M17" s="62"/>
       <c r="N17" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>181.8842978723404</v>
       </c>
       <c r="O17" s="64" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="32.5" customHeight="1">
@@ -5611,7 +6166,6 @@
         <v>0.96</v>
       </c>
       <c r="I18" s="61">
-        <f t="shared" si="1"/>
         <v>0.93957446808510647</v>
       </c>
       <c r="J18" s="61">
@@ -5621,18 +6175,17 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="L18" s="61">
-        <f t="shared" si="2"/>
         <v>0.62734374999999998</v>
       </c>
       <c r="M18" s="62" t="s">
         <v>102</v>
       </c>
       <c r="N18" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>185.89691821808512</v>
       </c>
       <c r="O18" s="64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="32.5" hidden="1" customHeight="1">
@@ -5646,7 +6199,7 @@
         <v>110</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E19" s="38">
         <v>91.47</v>
@@ -5661,7 +6214,6 @@
         <v>0.97</v>
       </c>
       <c r="I19" s="39">
-        <f t="shared" si="1"/>
         <v>0.93904255319148944</v>
       </c>
       <c r="J19" s="39">
@@ -5671,14 +6223,13 @@
         <v>0.47</v>
       </c>
       <c r="L19" s="39">
-        <f t="shared" si="2"/>
         <v>0.5808130081300813</v>
       </c>
       <c r="M19" s="46" t="s">
         <v>102</v>
       </c>
       <c r="N19" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>185.18985556132156</v>
       </c>
       <c r="O19" s="53"/>
@@ -5694,7 +6245,7 @@
         <v>110</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E20" s="38">
         <v>84.62</v>
@@ -5709,7 +6260,6 @@
         <v>0.99</v>
       </c>
       <c r="I20" s="39">
-        <f t="shared" si="1"/>
         <v>0.91467391304347834</v>
       </c>
       <c r="J20" s="39">
@@ -5719,19 +6269,18 @@
         <v>0.11</v>
       </c>
       <c r="L20" s="39">
-        <f t="shared" si="2"/>
         <v>0.18897435897435896</v>
       </c>
       <c r="M20" s="46"/>
       <c r="N20" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>173.30364827201782</v>
       </c>
       <c r="O20" s="53"/>
     </row>
     <row r="21" spans="1:15" ht="32.5" hidden="1" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B21" s="40" t="s">
         <v>95</v>
@@ -5755,7 +6304,6 @@
         <v>0.98</v>
       </c>
       <c r="I21" s="39">
-        <f t="shared" si="1"/>
         <v>0.93283422459893039</v>
       </c>
       <c r="J21" s="39">
@@ -5765,19 +6313,18 @@
         <v>0.39</v>
       </c>
       <c r="L21" s="39">
-        <f t="shared" si="2"/>
         <v>0.51315789473684204</v>
       </c>
       <c r="M21" s="46"/>
       <c r="N21" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>181.22599211933573</v>
       </c>
       <c r="O21" s="53"/>
     </row>
     <row r="22" spans="1:15" ht="32.5" customHeight="1">
       <c r="A22" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" s="58" t="s">
         <v>95</v>
@@ -5792,42 +6339,40 @@
         <v>100</v>
       </c>
       <c r="F22" s="61">
-        <v>86.9</v>
+        <v>87.43</v>
       </c>
       <c r="G22" s="60">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="H22" s="61">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="I22" s="61">
-        <f t="shared" si="1"/>
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="J22" s="61">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="K22" s="61">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="L22" s="61">
-        <f t="shared" si="2"/>
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="M22" s="62" t="s">
         <v>102</v>
       </c>
       <c r="N22" s="63">
-        <f t="shared" si="3"/>
-        <v>191.42999999999998</v>
+        <f t="shared" si="1"/>
+        <v>192.05000000000007</v>
       </c>
       <c r="O22" s="64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="32.5" hidden="1" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="40" t="s">
         <v>95</v>
@@ -5842,7 +6387,7 @@
         <v>100</v>
       </c>
       <c r="F23" s="39">
-        <v>90.31</v>
+        <v>90.47</v>
       </c>
       <c r="G23" s="38">
         <v>0.92</v>
@@ -5851,31 +6396,29 @@
         <v>0.97</v>
       </c>
       <c r="I23" s="39">
-        <f t="shared" si="1"/>
         <v>0.94433862433862426</v>
       </c>
       <c r="J23" s="39">
         <v>0.79</v>
       </c>
       <c r="K23" s="39">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L23" s="39">
-        <f t="shared" si="2"/>
-        <v>0.64150375939849624</v>
+        <v>0.64850746268656723</v>
       </c>
       <c r="M23" s="46" t="s">
         <v>102</v>
       </c>
       <c r="N23" s="52">
-        <f t="shared" si="3"/>
-        <v>195.11584238373709</v>
+        <f t="shared" si="1"/>
+        <v>195.2928460870252</v>
       </c>
       <c r="O23" s="53"/>
     </row>
     <row r="24" spans="1:15" ht="32.5" hidden="1" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" s="40" t="s">
         <v>95</v>
@@ -5899,7 +6442,6 @@
         <v>0.97</v>
       </c>
       <c r="I24" s="39">
-        <f t="shared" si="1"/>
         <v>0.93368983957219243</v>
       </c>
       <c r="J24" s="39">
@@ -5909,19 +6451,18 @@
         <v>0.4</v>
       </c>
       <c r="L24" s="39">
-        <f t="shared" si="2"/>
         <v>0.5117117117117117</v>
       </c>
       <c r="M24" s="46"/>
       <c r="N24" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>182.47540155128394</v>
       </c>
       <c r="O24" s="53"/>
     </row>
     <row r="25" spans="1:15" ht="32.5" customHeight="1">
       <c r="A25" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" s="58" t="s">
         <v>95</v>
@@ -5945,7 +6486,6 @@
         <v>0.89</v>
       </c>
       <c r="I25" s="61">
-        <f t="shared" si="1"/>
         <v>0.90956043956043964</v>
       </c>
       <c r="J25" s="61">
@@ -5955,23 +6495,22 @@
         <v>0.66</v>
       </c>
       <c r="L25" s="61">
-        <f t="shared" si="2"/>
         <v>0.58789915966386563</v>
       </c>
       <c r="M25" s="62" t="s">
         <v>102</v>
       </c>
       <c r="N25" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>173.70745959922428</v>
       </c>
       <c r="O25" s="64" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="32.5" hidden="1" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26" s="40" t="s">
         <v>95</v>
@@ -5995,7 +6534,6 @@
         <v>0.98</v>
       </c>
       <c r="I26" s="39">
-        <f t="shared" si="1"/>
         <v>0.93829787234042561</v>
       </c>
       <c r="J26" s="39">
@@ -6005,19 +6543,18 @@
         <v>0.42</v>
       </c>
       <c r="L26" s="39">
-        <f t="shared" si="2"/>
         <v>0.54600000000000004</v>
       </c>
       <c r="M26" s="46"/>
       <c r="N26" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>181.79429787234039</v>
       </c>
       <c r="O26" s="53"/>
     </row>
     <row r="27" spans="1:15" ht="32.5" hidden="1" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="40" t="s">
         <v>95</v>
@@ -6041,7 +6578,6 @@
         <v>0.98</v>
       </c>
       <c r="I27" s="39">
-        <f t="shared" si="1"/>
         <v>0.94370370370370371</v>
       </c>
       <c r="J27" s="39">
@@ -6051,19 +6587,18 @@
         <v>0.48</v>
       </c>
       <c r="L27" s="39">
-        <f t="shared" si="2"/>
         <v>0.59716535433070861</v>
       </c>
       <c r="M27" s="46"/>
       <c r="N27" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>183.4708690580344</v>
       </c>
       <c r="O27" s="53"/>
     </row>
     <row r="28" spans="1:15" ht="32.5" customHeight="1">
       <c r="A28" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" s="58" t="s">
         <v>95</v>
@@ -6072,7 +6607,7 @@
         <v>110</v>
       </c>
       <c r="D28" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28" s="60">
         <v>99.57</v>
@@ -6087,7 +6622,6 @@
         <v>0.93</v>
       </c>
       <c r="I28" s="61">
-        <f t="shared" si="1"/>
         <v>0.92497297297297298</v>
       </c>
       <c r="J28" s="61">
@@ -6097,23 +6631,22 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="L28" s="61">
-        <f t="shared" si="2"/>
         <v>0.59462184873949575</v>
       </c>
       <c r="M28" s="62" t="s">
         <v>102</v>
       </c>
       <c r="N28" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>191.59959482171249</v>
       </c>
       <c r="O28" s="64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="32.5" customHeight="1">
       <c r="A29" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B29" s="58" t="s">
         <v>95</v>
@@ -6122,7 +6655,7 @@
         <v>110</v>
       </c>
       <c r="D29" s="67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" s="60">
         <v>99.68</v>
@@ -6137,7 +6670,6 @@
         <v>0.93</v>
       </c>
       <c r="I29" s="61">
-        <f t="shared" si="1"/>
         <v>0.92497297297297298</v>
       </c>
       <c r="J29" s="61">
@@ -6147,24 +6679,24 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="L29" s="61">
-        <f t="shared" si="2"/>
         <v>0.58461538461538465</v>
       </c>
       <c r="M29" s="62" t="s">
         <v>102</v>
       </c>
       <c r="N29" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>191.26958835758833</v>
       </c>
       <c r="O29" s="64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:O29">
-    <filterColumn colId="0">
-      <colorFilter dxfId="2"/>
+    <filterColumn colId="0"/>
+    <filterColumn colId="1">
+      <colorFilter dxfId="0"/>
     </filterColumn>
     <filterColumn colId="12">
       <customFilters>
@@ -6185,7 +6717,7 @@
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3:K9"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6212,41 +6744,41 @@
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
       <c r="E1" s="68">
-        <f>AVERAGE(E3:E9)</f>
-        <v>95.13000000000001</v>
+        <f t="shared" ref="E1:L1" si="0">AVERAGE(E3:E9)</f>
+        <v>95.131428571428586</v>
       </c>
       <c r="F1" s="68">
-        <f>AVERAGE(F3:F9)</f>
-        <v>87.972857142857137</v>
+        <f t="shared" si="0"/>
+        <v>88.025714285714301</v>
       </c>
       <c r="G1" s="68">
-        <f>AVERAGE(G3:G9)</f>
-        <v>0.92142857142857149</v>
+        <f t="shared" si="0"/>
+        <v>0.92285714285714282</v>
       </c>
       <c r="H1" s="68">
-        <f>AVERAGE(H3:H9)</f>
-        <v>0.93571428571428561</v>
+        <f t="shared" si="0"/>
+        <v>0.93714285714285706</v>
       </c>
       <c r="I1" s="68">
-        <f>AVERAGE(I3:I9)</f>
-        <v>0.9283112623169838</v>
+        <f t="shared" si="0"/>
+        <v>0.92973983374555513</v>
       </c>
       <c r="J1" s="68">
-        <f>AVERAGE(J3:J9)</f>
+        <f t="shared" si="0"/>
         <v>0.64857142857142858</v>
       </c>
       <c r="K1" s="68">
-        <f>AVERAGE(K3:K9)</f>
-        <v>0.57857142857142863</v>
+        <f t="shared" si="0"/>
+        <v>0.58142857142857152</v>
       </c>
       <c r="L1" s="68">
-        <f>AVERAGE(L3:L9)</f>
-        <v>0.60635172516734437</v>
+        <f t="shared" si="0"/>
+        <v>0.60824614375349229</v>
       </c>
       <c r="M1" s="27"/>
       <c r="N1" s="68">
         <f>AVERAGE(N3:N9)</f>
-        <v>187.7218058446272</v>
+        <v>187.78512883464194</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -6275,7 +6807,7 @@
         <v>89</v>
       </c>
       <c r="I2" s="69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J2" s="69" t="s">
         <v>90</v>
@@ -6284,7 +6816,7 @@
         <v>91</v>
       </c>
       <c r="L2" s="69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M2" s="27"/>
       <c r="N2" s="69" t="s">
@@ -6305,10 +6837,10 @@
         <v>101</v>
       </c>
       <c r="E3" s="49">
-        <v>99.99</v>
+        <v>100</v>
       </c>
       <c r="F3" s="50">
-        <v>90.63</v>
+        <v>90.47</v>
       </c>
       <c r="G3" s="49">
         <v>0.92</v>
@@ -6317,25 +6849,23 @@
         <v>0.97</v>
       </c>
       <c r="I3" s="50">
-        <f t="shared" ref="I3:I9" si="0">(2*(G3*H3))/(G3+H3)</f>
         <v>0.94433862433862426</v>
       </c>
       <c r="J3" s="50">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="K3" s="50">
         <v>0.55000000000000004</v>
       </c>
       <c r="L3" s="50">
-        <f t="shared" ref="L3:L9" si="1">(2*(J3*K3))/(J3+K3)</f>
-        <v>0.6518518518518519</v>
+        <v>0.6451127819548873</v>
       </c>
       <c r="M3" s="54" t="s">
         <v>102</v>
       </c>
       <c r="N3" s="55">
-        <f t="shared" ref="N3:N9" si="2">SUM(E3:L3)</f>
-        <v>195.4561904761905</v>
+        <f>SUM(E3:L3)</f>
+        <v>195.2794514062935</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="32.5" customHeight="1">
@@ -6364,7 +6894,6 @@
         <v>0.95</v>
       </c>
       <c r="I4" s="50">
-        <f t="shared" si="0"/>
         <v>0.93475935828876999</v>
       </c>
       <c r="J4" s="50">
@@ -6374,14 +6903,13 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="L4" s="50">
-        <f t="shared" si="1"/>
         <v>0.60813008130081314</v>
       </c>
       <c r="M4" s="54" t="s">
         <v>102</v>
       </c>
       <c r="N4" s="55">
-        <f t="shared" si="2"/>
+        <f>SUM(E4:L4)</f>
         <v>184.69288943958958</v>
       </c>
     </row>
@@ -6411,7 +6939,6 @@
         <v>0.96</v>
       </c>
       <c r="I5" s="50">
-        <f t="shared" si="0"/>
         <v>0.93957446808510647</v>
       </c>
       <c r="J5" s="50">
@@ -6421,20 +6948,19 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="L5" s="50">
-        <f t="shared" si="1"/>
         <v>0.62734374999999998</v>
       </c>
       <c r="M5" s="54" t="s">
         <v>102</v>
       </c>
       <c r="N5" s="55">
-        <f t="shared" si="2"/>
+        <f>SUM(E5:L5)</f>
         <v>185.89691821808512</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="32.5" customHeight="1">
       <c r="A6" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>95</v>
@@ -6449,39 +6975,37 @@
         <v>100</v>
       </c>
       <c r="F6" s="50">
-        <v>86.9</v>
+        <v>87.43</v>
       </c>
       <c r="G6" s="49">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="H6" s="50">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="I6" s="50">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="J6" s="50">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="K6" s="50">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="L6" s="50">
-        <f t="shared" si="1"/>
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="M6" s="54" t="s">
         <v>102</v>
       </c>
       <c r="N6" s="55">
-        <f t="shared" si="2"/>
-        <v>191.42999999999998</v>
+        <f>SUM(E6:L6)</f>
+        <v>192.05000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="32.5" customHeight="1">
       <c r="A7" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="47" t="s">
         <v>95</v>
@@ -6505,7 +7029,6 @@
         <v>0.89</v>
       </c>
       <c r="I7" s="50">
-        <f t="shared" si="0"/>
         <v>0.90956043956043964</v>
       </c>
       <c r="J7" s="50">
@@ -6515,20 +7038,19 @@
         <v>0.66</v>
       </c>
       <c r="L7" s="50">
-        <f t="shared" si="1"/>
         <v>0.58789915966386563</v>
       </c>
       <c r="M7" s="54" t="s">
         <v>102</v>
       </c>
       <c r="N7" s="55">
-        <f t="shared" si="2"/>
+        <f>SUM(E7:L7)</f>
         <v>173.70745959922428</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="32.5" customHeight="1">
       <c r="A8" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="47" t="s">
         <v>95</v>
@@ -6537,7 +7059,7 @@
         <v>110</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="49">
         <v>99.57</v>
@@ -6552,7 +7074,6 @@
         <v>0.93</v>
       </c>
       <c r="I8" s="50">
-        <f t="shared" si="0"/>
         <v>0.92497297297297298</v>
       </c>
       <c r="J8" s="50">
@@ -6562,20 +7083,19 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="L8" s="50">
-        <f t="shared" si="1"/>
         <v>0.59462184873949575</v>
       </c>
       <c r="M8" s="54" t="s">
         <v>102</v>
       </c>
       <c r="N8" s="55">
-        <f t="shared" si="2"/>
+        <f>SUM(E8:L8)</f>
         <v>191.59959482171249</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="32.5" customHeight="1">
       <c r="A9" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="47" t="s">
         <v>95</v>
@@ -6584,7 +7104,7 @@
         <v>110</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="49">
         <v>99.68</v>
@@ -6599,7 +7119,6 @@
         <v>0.93</v>
       </c>
       <c r="I9" s="50">
-        <f t="shared" si="0"/>
         <v>0.92497297297297298</v>
       </c>
       <c r="J9" s="50">
@@ -6609,14 +7128,13 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="L9" s="50">
-        <f t="shared" si="1"/>
         <v>0.58461538461538465</v>
       </c>
       <c r="M9" s="54" t="s">
         <v>102</v>
       </c>
       <c r="N9" s="55">
-        <f t="shared" si="2"/>
+        <f>SUM(E9:L9)</f>
         <v>191.26958835758833</v>
       </c>
     </row>
@@ -6625,6 +7143,114 @@
     <filterColumn colId="0"/>
     <filterColumn colId="12"/>
   </autoFilter>
+  <conditionalFormatting sqref="E3:E9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F9">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G9">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H9">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I9">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6633,12 +7259,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q9"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6659,59 +7286,60 @@
     <col min="14" max="14" width="1.90625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.6328125" customWidth="1"/>
     <col min="16" max="16" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
       <c r="F1" s="68">
-        <f>AVERAGE(F3:F9)</f>
-        <v>94.384285714285724</v>
+        <f t="shared" ref="F1:M1" si="0">AVERAGE(F3:F9)</f>
+        <v>94.395714285714277</v>
       </c>
       <c r="G1" s="68">
-        <f>AVERAGE(G3:G9)</f>
-        <v>88.14</v>
+        <f t="shared" si="0"/>
+        <v>85.338571428571427</v>
       </c>
       <c r="H1" s="68">
-        <f>AVERAGE(H3:H9)</f>
-        <v>0.94000000000000006</v>
+        <f t="shared" si="0"/>
+        <v>0.94142857142857139</v>
       </c>
       <c r="I1" s="68">
-        <f>AVERAGE(I3:I9)</f>
-        <v>0.88428571428571423</v>
+        <f t="shared" si="0"/>
+        <v>0.88285714285714278</v>
       </c>
       <c r="J1" s="68">
-        <f>AVERAGE(J3:J9)</f>
-        <v>0.90950177136334698</v>
+        <f t="shared" si="0"/>
+        <v>0.90947830950417596</v>
       </c>
       <c r="K1" s="68">
-        <f>AVERAGE(K3:K9)</f>
-        <v>0.56571428571428573</v>
+        <f t="shared" si="0"/>
+        <v>0.56428571428571428</v>
       </c>
       <c r="L1" s="68">
-        <f>AVERAGE(L3:L9)</f>
-        <v>0.69571428571428573</v>
+        <f t="shared" si="0"/>
+        <v>0.69285714285714295</v>
       </c>
       <c r="M1" s="68">
-        <f>AVERAGE(M3:M9)</f>
-        <v>0.60947783942070255</v>
+        <f t="shared" si="0"/>
+        <v>0.60682347227299593</v>
       </c>
       <c r="N1" s="27"/>
       <c r="O1" s="68">
         <f>AVERAGE(O3:O9)</f>
-        <v>187.12897961078403</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>184.33201606749142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="75" customFormat="1">
       <c r="A2" s="69" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="69" t="s">
         <v>83</v>
@@ -6735,7 +7363,7 @@
         <v>89</v>
       </c>
       <c r="J2" s="69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K2" s="69" t="s">
         <v>90</v>
@@ -6744,19 +7372,25 @@
         <v>91</v>
       </c>
       <c r="M2" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="N2" s="27"/>
+        <v>114</v>
+      </c>
+      <c r="N2" s="74"/>
       <c r="O2" s="69" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="32.5" customHeight="1">
+      <c r="Q2" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="S2" s="75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="32.5" customHeight="1">
       <c r="A3" s="24" t="s">
         <v>111</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>95</v>
@@ -6768,10 +7402,10 @@
         <v>101</v>
       </c>
       <c r="F3" s="49">
-        <v>99.99</v>
+        <v>100</v>
       </c>
       <c r="G3" s="50">
-        <v>99.51</v>
+        <v>90.27</v>
       </c>
       <c r="H3" s="49">
         <v>0.93</v>
@@ -6780,38 +7414,47 @@
         <v>0.96</v>
       </c>
       <c r="J3" s="50">
-        <f t="shared" ref="J3:J9" si="0">(2*(H3*I3))/(H3+I3)</f>
+        <f>(2*(H3*I3))/(H3+I3)</f>
         <v>0.94476190476190469</v>
       </c>
       <c r="K3" s="50">
         <v>0.74</v>
       </c>
       <c r="L3" s="50">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="M3" s="50">
-        <f t="shared" ref="M3:M9" si="1">(2*(K3*L3))/(K3+L3)</f>
-        <v>0.68058394160583935</v>
-      </c>
-      <c r="N3" s="54"/>
+        <f>(2*(K3*L3))/(K3+L3)</f>
+        <v>0.66268656716417917</v>
+      </c>
+      <c r="N3" s="54" t="s">
+        <v>102</v>
+      </c>
       <c r="O3" s="55">
-        <f t="shared" ref="O3:O9" si="2">SUM(F3:M3)</f>
-        <v>204.38534584636778</v>
+        <f>SUM(F3:M3)</f>
+        <v>195.10744847192609</v>
       </c>
       <c r="P3" s="50">
         <v>0.55000000000000004</v>
       </c>
       <c r="Q3" s="72">
         <f>(L3-P3)/P3</f>
-        <v>0.14545454545454536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="32.5" customHeight="1">
+        <v>9.0909090909090787E-2</v>
+      </c>
+      <c r="R3" s="73">
+        <v>90.47</v>
+      </c>
+      <c r="S3" s="72">
+        <f>(G3-R3)/R3</f>
+        <v>-2.2106775726760566E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="32.5" hidden="1" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>111</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>95</v>
@@ -6835,7 +7478,7 @@
         <v>0.81</v>
       </c>
       <c r="J4" s="50">
-        <f t="shared" si="0"/>
+        <f>(2*(H4*I4))/(H4+I4)</f>
         <v>0.8786440677966102</v>
       </c>
       <c r="K4" s="50">
@@ -6845,28 +7488,35 @@
         <v>0.8</v>
       </c>
       <c r="M4" s="50">
-        <f t="shared" si="1"/>
+        <f>(2*(K4*L4))/(K4+L4)</f>
         <v>0.56774193548387097</v>
       </c>
       <c r="N4" s="54"/>
       <c r="O4" s="55">
-        <f t="shared" si="2"/>
+        <f>SUM(F4:M4)</f>
         <v>176.7663860032805</v>
       </c>
       <c r="P4" s="50">
         <v>0.55000000000000004</v>
       </c>
       <c r="Q4" s="72">
-        <f t="shared" ref="Q4:Q9" si="3">(L4-P4)/P4</f>
+        <f t="shared" ref="Q4:Q9" si="1">(L4-P4)/P4</f>
         <v>0.45454545454545453</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="32.5" customHeight="1">
+      <c r="R4" s="73">
+        <v>88.73</v>
+      </c>
+      <c r="S4" s="72">
+        <f t="shared" ref="S4:S9" si="2">(G4-R4)/R4</f>
+        <v>-9.2302490702130022E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="32.5" customHeight="1">
       <c r="A5" s="24" t="s">
         <v>111</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>95</v>
@@ -6890,7 +7540,7 @@
         <v>0.89</v>
       </c>
       <c r="J5" s="50">
-        <f t="shared" si="0"/>
+        <f>(2*(H5*I5))/(H5+I5)</f>
         <v>0.92367567567567554</v>
       </c>
       <c r="K5" s="50">
@@ -6900,28 +7550,37 @@
         <v>0.79</v>
       </c>
       <c r="M5" s="50">
-        <f t="shared" si="1"/>
+        <f>(2*(K5*L5))/(K5+L5)</f>
         <v>0.6622058823529412</v>
       </c>
-      <c r="N5" s="54"/>
+      <c r="N5" s="54" t="s">
+        <v>102</v>
+      </c>
       <c r="O5" s="55">
-        <f t="shared" si="2"/>
+        <f>SUM(F5:M5)</f>
         <v>180.0858815580286</v>
       </c>
       <c r="P5" s="50">
         <v>0.55000000000000004</v>
       </c>
       <c r="Q5" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.43636363636363629</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="32.5" customHeight="1">
+      <c r="R5" s="73">
+        <v>89.66</v>
+      </c>
+      <c r="S5" s="72">
+        <f t="shared" si="2"/>
+        <v>-2.7102386794557135E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="32.5" customHeight="1">
       <c r="A6" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>95</v>
@@ -6936,47 +7595,56 @@
         <v>100</v>
       </c>
       <c r="G6" s="50">
-        <v>86.62</v>
+        <v>86.13</v>
       </c>
       <c r="H6" s="49">
         <v>0.93</v>
       </c>
       <c r="I6" s="50">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="J6" s="50">
-        <f t="shared" si="0"/>
-        <v>0.91989130434782607</v>
+        <f>(2*(H6*I6))/(H6+I6)</f>
+        <v>0.9147540983606558</v>
       </c>
       <c r="K6" s="50">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L6" s="50">
         <v>0.64</v>
       </c>
       <c r="M6" s="50">
+        <f>(2*(K6*L6))/(K6+L6)</f>
+        <v>0.59733333333333338</v>
+      </c>
+      <c r="N6" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="O6" s="55">
+        <f>SUM(F6:M6)</f>
+        <v>190.67208743169397</v>
+      </c>
+      <c r="P6" s="50">
+        <v>0.61</v>
+      </c>
+      <c r="Q6" s="72">
         <f t="shared" si="1"/>
-        <v>0.60297520661157022</v>
-      </c>
-      <c r="N6" s="54"/>
-      <c r="O6" s="55">
+        <v>4.9180327868852507E-2</v>
+      </c>
+      <c r="R6" s="73">
+        <v>87.43</v>
+      </c>
+      <c r="S6" s="72">
         <f t="shared" si="2"/>
-        <v>191.19286651095939</v>
-      </c>
-      <c r="P6" s="50">
-        <v>0.59</v>
-      </c>
-      <c r="Q6" s="72">
-        <f t="shared" si="3"/>
-        <v>8.4745762711864486E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="32.5" customHeight="1">
+        <v>-1.4869038087613076E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="32.5" hidden="1" customHeight="1">
       <c r="A7" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>95</v>
@@ -7000,7 +7668,7 @@
         <v>0.77</v>
       </c>
       <c r="J7" s="50">
-        <f t="shared" si="0"/>
+        <f>(2*(H7*I7))/(H7+I7)</f>
         <v>0.85456647398843932</v>
       </c>
       <c r="K7" s="50">
@@ -7010,28 +7678,35 @@
         <v>0.83</v>
       </c>
       <c r="M7" s="50">
-        <f t="shared" si="1"/>
+        <f>(2*(K7*L7))/(K7+L7)</f>
         <v>0.54887096774193533</v>
       </c>
       <c r="N7" s="54"/>
       <c r="O7" s="55">
-        <f t="shared" si="2"/>
+        <f>SUM(F7:M7)</f>
         <v>164.1934374417304</v>
       </c>
       <c r="P7" s="50">
         <v>0.66</v>
       </c>
       <c r="Q7" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.25757575757575746</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="32.5" customHeight="1">
+      <c r="R7" s="73">
+        <v>85.36</v>
+      </c>
+      <c r="S7" s="72">
+        <f t="shared" si="2"/>
+        <v>-8.5520149953139613E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="32.5" customHeight="1">
       <c r="A8" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>95</v>
@@ -7040,7 +7715,7 @@
         <v>110</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" s="49">
         <v>99.79</v>
@@ -7055,7 +7730,7 @@
         <v>0.93</v>
       </c>
       <c r="J8" s="50">
-        <f t="shared" si="0"/>
+        <f>(2*(H8*I8))/(H8+I8)</f>
         <v>0.92497297297297298</v>
       </c>
       <c r="K8" s="50">
@@ -7065,28 +7740,37 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M8" s="50">
-        <f t="shared" si="1"/>
+        <f>(2*(K8*L8))/(K8+L8)</f>
         <v>0.60396694214876034</v>
       </c>
-      <c r="N8" s="54"/>
+      <c r="N8" s="54" t="s">
+        <v>102</v>
+      </c>
       <c r="O8" s="55">
-        <f t="shared" si="2"/>
+        <f>SUM(F8:M8)</f>
         <v>192.12893991512175</v>
       </c>
       <c r="P8" s="50">
         <v>0.57999999999999996</v>
       </c>
       <c r="Q8" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="32.5" customHeight="1">
+      <c r="R8" s="73">
+        <v>87.47</v>
+      </c>
+      <c r="S8" s="72">
+        <f t="shared" si="2"/>
+        <v>3.2010975191494357E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="32.5" customHeight="1">
       <c r="A9" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="47" t="s">
         <v>95</v>
@@ -7095,53 +7779,204 @@
         <v>110</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F9" s="49">
-        <v>99.32</v>
+        <v>99.39</v>
       </c>
       <c r="G9" s="50">
-        <v>97.27</v>
+        <v>87.39</v>
       </c>
       <c r="H9" s="49">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="I9" s="50">
         <v>0.92</v>
       </c>
       <c r="J9" s="50">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
+        <f>(2*(H9*I9))/(H9+I9)</f>
+        <v>0.92497297297297298</v>
       </c>
       <c r="K9" s="50">
         <v>0.6</v>
       </c>
       <c r="L9" s="50">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="M9" s="50">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="N9" s="54"/>
+        <f>(2*(K9*L9))/(K9+L9)</f>
+        <v>0.60495867768595046</v>
+      </c>
+      <c r="N9" s="54" t="s">
+        <v>102</v>
+      </c>
       <c r="O9" s="55">
-        <f t="shared" si="2"/>
-        <v>201.14999999999992</v>
+        <f>SUM(F9:M9)</f>
+        <v>191.36993165065891</v>
       </c>
       <c r="P9" s="50">
         <v>0.56999999999999995</v>
       </c>
       <c r="Q9" s="72">
-        <f t="shared" si="3"/>
-        <v>5.2631578947368474E-2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>7.0175438596491294E-2</v>
+      </c>
+      <c r="R9" s="73">
+        <v>87.06</v>
+      </c>
+      <c r="S9" s="72">
+        <f t="shared" si="2"/>
+        <v>3.790489317711903E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="G11" s="51"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:O9">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
-    <filterColumn colId="13"/>
+    <filterColumn colId="13">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
   </autoFilter>
+  <conditionalFormatting sqref="F3:F9">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G9">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I9">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J9">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K9">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L9">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/PBS Result.xlsx
+++ b/PBS Result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="410" yWindow="110" windowWidth="13380" windowHeight="4340" activeTab="9"/>
+    <workbookView xWindow="410" yWindow="110" windowWidth="13380" windowHeight="4340" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="TL" sheetId="4" r:id="rId1"/>
@@ -17,15 +17,25 @@
     <sheet name="Scale_best" sheetId="13" r:id="rId8"/>
     <sheet name="SMOTE" sheetId="14" r:id="rId9"/>
     <sheet name="Feat Sel" sheetId="15" r:id="rId10"/>
+    <sheet name="Feat Sel_best" sheetId="16" r:id="rId11"/>
+    <sheet name="RF tuning" sheetId="17" r:id="rId12"/>
+    <sheet name="SVM tuning" sheetId="19" r:id="rId13"/>
+    <sheet name="MLP tuning" sheetId="20" r:id="rId14"/>
+    <sheet name="Ultimate" sheetId="21" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Feat Sel'!$A$2:$P$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Feat Sel'!$A$2:$P$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Feat Sel_best'!$A$2:$P$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'MLP tuning'!$A$2:$Q$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Raw!$A$2:$N$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'RF tuning'!$A$2:$Q$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Rob!$A$2:$N$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Scale!$A$2:$O$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Scale_best!$A$2:$N$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">SMOTE!$A$2:$O$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Std!$A$2:$N$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'SVM tuning'!$A$2:$Q$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Ultimate!$A$2:$Q$5</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -197,12 +207,104 @@
         </r>
       </text>
     </comment>
+    <comment ref="F11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriella Tanubrata:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+max iter 200 --&gt; 1000 failed to converge</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Gabriella Tanubrata</author>
+  </authors>
+  <commentList>
+    <comment ref="F6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriella Tanubrata:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+max iter 200 --&gt; 1000 failed to converge</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Gabriella Tanubrata</author>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriella Tanubrata:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+max iter 200 --&gt; 1000 failed to converge</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="135">
   <si>
     <t>Student cari alternatif case final project</t>
   </si>
@@ -606,6 +708,45 @@
   </si>
   <si>
     <t>Feature Selection</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>criterion='entropy',  #
+                                    max_depth=200,        #
+                                    min_samples_split=4,  #
+                                    min_samples_leaf=1, 
+                                    n_estimators=80,      #</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>criterion='entropy',  #
+                                    max_depth=150,        #
+                                    min_samples_split=3,  # 
+                                    min_samples_leaf=1, 
+                                    n_estimators=90,      #</t>
+  </si>
+  <si>
+    <t>kernel='rbf', 
+C=100,          #
+gamma=0.1,      #</t>
+  </si>
+  <si>
+    <t>hidden_layer_sizes=(200,),   #
+                           activation='tanh',           #
+                           solver='adam', 
+                           alpha=0.0001, 
+                           random_state=1,
+                           max_iter=8000                #</t>
   </si>
 </sst>
 </file>
@@ -767,7 +908,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -946,6 +1087,22 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1880,12 +2037,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1917,42 +2075,50 @@
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
-      <c r="G1" s="68" t="e">
+      <c r="G1" s="68">
         <f t="shared" ref="G1:N1" si="0">AVERAGE(G3:G7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H1" s="68" t="e">
+        <v>95.91</v>
+      </c>
+      <c r="H1" s="68">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I1" s="68" t="e">
+        <v>87.67</v>
+      </c>
+      <c r="I1" s="68">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J1" s="68" t="e">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="J1" s="68">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K1" s="68" t="e">
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="K1" s="68">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L1" s="68" t="e">
+        <v>0.92649623845444329</v>
+      </c>
+      <c r="L1" s="68">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M1" s="68" t="e">
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="M1" s="68">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N1" s="68" t="e">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="N1" s="68">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.64464154942544361</v>
       </c>
       <c r="O1" s="27"/>
-      <c r="P1" s="68" t="e">
+      <c r="P1" s="68">
         <f>AVERAGE(P3:P7)</f>
-        <v>#DIV/0!</v>
+        <v>188.30713778787987</v>
+      </c>
+      <c r="R1" s="80">
+        <f>AVERAGE(R3:R7)</f>
+        <v>9.7730709440361802E-2</v>
+      </c>
+      <c r="T1" s="80">
+        <f>AVERAGE(T3:T7)</f>
+        <v>-9.4391498044225572E-4</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="75" customFormat="1">
@@ -2009,6 +2175,833 @@
         <v>125</v>
       </c>
     </row>
+    <row r="3" spans="1:20" ht="32.5" hidden="1" customHeight="1">
+      <c r="A3" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="24">
+        <v>20</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="49">
+        <v>100</v>
+      </c>
+      <c r="H3" s="50">
+        <v>90.06</v>
+      </c>
+      <c r="I3" s="49">
+        <v>0.94</v>
+      </c>
+      <c r="J3" s="50">
+        <v>0.94</v>
+      </c>
+      <c r="K3" s="50">
+        <f t="shared" ref="K3:K12" si="1">(2*(I3*J3))/(I3+J3)</f>
+        <v>0.94</v>
+      </c>
+      <c r="L3" s="50">
+        <v>0.69</v>
+      </c>
+      <c r="M3" s="50">
+        <v>0.69</v>
+      </c>
+      <c r="N3" s="50">
+        <f t="shared" ref="N3:N12" si="2">(2*(L3*M3))/(L3+M3)</f>
+        <v>0.69</v>
+      </c>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55">
+        <f t="shared" ref="P3:P12" si="3">SUM(G3:N3)</f>
+        <v>194.95</v>
+      </c>
+      <c r="Q3" s="50">
+        <v>0.6</v>
+      </c>
+      <c r="R3" s="78">
+        <f>(M3-Q3)/Q3</f>
+        <v>0.14999999999999997</v>
+      </c>
+      <c r="S3" s="79">
+        <v>90.27</v>
+      </c>
+      <c r="T3" s="78">
+        <f>(H3-S3)/S3</f>
+        <v>-2.3263542705216989E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="32.5" hidden="1" customHeight="1">
+      <c r="A4" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="24">
+        <v>20</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="49">
+        <v>89.95</v>
+      </c>
+      <c r="H4" s="50">
+        <v>86.98</v>
+      </c>
+      <c r="I4" s="49">
+        <v>0.96</v>
+      </c>
+      <c r="J4" s="50">
+        <v>0.89</v>
+      </c>
+      <c r="K4" s="50">
+        <f t="shared" si="1"/>
+        <v>0.92367567567567554</v>
+      </c>
+      <c r="L4" s="50">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M4" s="50">
+        <v>0.79</v>
+      </c>
+      <c r="N4" s="50">
+        <f t="shared" si="2"/>
+        <v>0.6622058823529412</v>
+      </c>
+      <c r="O4" s="54"/>
+      <c r="P4" s="55">
+        <f t="shared" si="3"/>
+        <v>181.72588155802859</v>
+      </c>
+      <c r="Q4" s="50">
+        <v>0.79</v>
+      </c>
+      <c r="R4" s="72">
+        <f t="shared" ref="R4:R7" si="4">(M4-Q4)/Q4</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="73">
+        <v>87.23</v>
+      </c>
+      <c r="T4" s="72">
+        <f t="shared" ref="T4:T7" si="5">(H4-S4)/S4</f>
+        <v>-2.8659864725438496E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="32.5" hidden="1" customHeight="1">
+      <c r="A5" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="24">
+        <v>20</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="49">
+        <v>100</v>
+      </c>
+      <c r="H5" s="50">
+        <v>86.29</v>
+      </c>
+      <c r="I5" s="49">
+        <v>0.93</v>
+      </c>
+      <c r="J5" s="50">
+        <v>0.91</v>
+      </c>
+      <c r="K5" s="50">
+        <f t="shared" si="1"/>
+        <v>0.91989130434782607</v>
+      </c>
+      <c r="L5" s="50">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M5" s="50">
+        <v>0.61</v>
+      </c>
+      <c r="N5" s="50">
+        <f t="shared" si="2"/>
+        <v>0.58393162393162401</v>
+      </c>
+      <c r="O5" s="54"/>
+      <c r="P5" s="55">
+        <f t="shared" si="3"/>
+        <v>190.80382292827949</v>
+      </c>
+      <c r="Q5" s="50">
+        <v>0.64</v>
+      </c>
+      <c r="R5" s="72">
+        <f t="shared" si="4"/>
+        <v>-4.6875000000000042E-2</v>
+      </c>
+      <c r="S5" s="73">
+        <v>86.13</v>
+      </c>
+      <c r="T5" s="72">
+        <f t="shared" si="5"/>
+        <v>1.8576570300709487E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="32.5" hidden="1" customHeight="1">
+      <c r="A6" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="24">
+        <v>20</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="49">
+        <v>95.28</v>
+      </c>
+      <c r="H6" s="50">
+        <v>88</v>
+      </c>
+      <c r="I6" s="49">
+        <v>0.94</v>
+      </c>
+      <c r="J6" s="50">
+        <v>0.92</v>
+      </c>
+      <c r="K6" s="50">
+        <f t="shared" si="1"/>
+        <v>0.92989247311827961</v>
+      </c>
+      <c r="L6" s="50">
+        <v>0.61</v>
+      </c>
+      <c r="M6" s="50">
+        <v>0.68</v>
+      </c>
+      <c r="N6" s="50">
+        <f t="shared" si="2"/>
+        <v>0.64310077519379838</v>
+      </c>
+      <c r="O6" s="54"/>
+      <c r="P6" s="55">
+        <f t="shared" si="3"/>
+        <v>188.00299324831209</v>
+      </c>
+      <c r="Q6" s="50">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="R6" s="72">
+        <f t="shared" si="4"/>
+        <v>0.17241379310344845</v>
+      </c>
+      <c r="S6" s="73">
+        <v>87.75</v>
+      </c>
+      <c r="T6" s="72">
+        <f t="shared" si="5"/>
+        <v>2.8490028490028491E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="32.5" hidden="1" customHeight="1">
+      <c r="A7" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="24">
+        <v>20</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="49">
+        <v>94.32</v>
+      </c>
+      <c r="H7" s="50">
+        <v>87.02</v>
+      </c>
+      <c r="I7" s="49">
+        <v>0.95</v>
+      </c>
+      <c r="J7" s="50">
+        <v>0.89</v>
+      </c>
+      <c r="K7" s="50">
+        <f t="shared" si="1"/>
+        <v>0.91902173913043472</v>
+      </c>
+      <c r="L7" s="50">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M7" s="50">
+        <v>0.74</v>
+      </c>
+      <c r="N7" s="50">
+        <f t="shared" si="2"/>
+        <v>0.64396946564885482</v>
+      </c>
+      <c r="O7" s="54"/>
+      <c r="P7" s="55">
+        <f t="shared" si="3"/>
+        <v>186.05299120477926</v>
+      </c>
+      <c r="Q7" s="50">
+        <v>0.61</v>
+      </c>
+      <c r="R7" s="72">
+        <f t="shared" si="4"/>
+        <v>0.21311475409836067</v>
+      </c>
+      <c r="S7" s="73">
+        <v>87.39</v>
+      </c>
+      <c r="T7" s="72">
+        <f t="shared" si="5"/>
+        <v>-4.2338940382195276E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="32.5" customHeight="1">
+      <c r="A8" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="57">
+        <v>16</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="60">
+        <v>99.99</v>
+      </c>
+      <c r="H8" s="61">
+        <v>88.52</v>
+      </c>
+      <c r="I8" s="60">
+        <v>0.94</v>
+      </c>
+      <c r="J8" s="61">
+        <v>0.92</v>
+      </c>
+      <c r="K8" s="61">
+        <f t="shared" si="1"/>
+        <v>0.92989247311827961</v>
+      </c>
+      <c r="L8" s="61">
+        <v>0.63</v>
+      </c>
+      <c r="M8" s="61">
+        <v>0.69</v>
+      </c>
+      <c r="N8" s="61">
+        <f t="shared" si="2"/>
+        <v>0.65863636363636369</v>
+      </c>
+      <c r="O8" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" s="63">
+        <f t="shared" si="3"/>
+        <v>193.27852883675462</v>
+      </c>
+      <c r="Q8" s="61">
+        <v>0.6</v>
+      </c>
+      <c r="R8" s="76">
+        <f>(M8-Q8)/Q8</f>
+        <v>0.14999999999999997</v>
+      </c>
+      <c r="S8" s="77">
+        <v>90.27</v>
+      </c>
+      <c r="T8" s="76">
+        <f>(H8-S8)/S8</f>
+        <v>-1.93862855876814E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="32.5" customHeight="1">
+      <c r="A9" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="57">
+        <v>16</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="60">
+        <v>89.17</v>
+      </c>
+      <c r="H9" s="61">
+        <v>86.74</v>
+      </c>
+      <c r="I9" s="60">
+        <v>0.96</v>
+      </c>
+      <c r="J9" s="61">
+        <v>0.88</v>
+      </c>
+      <c r="K9" s="61">
+        <f t="shared" si="1"/>
+        <v>0.91826086956521746</v>
+      </c>
+      <c r="L9" s="61">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M9" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="N9" s="61">
+        <f t="shared" si="2"/>
+        <v>0.65882352941176481</v>
+      </c>
+      <c r="O9" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" s="63">
+        <f t="shared" si="3"/>
+        <v>180.68708439897699</v>
+      </c>
+      <c r="Q9" s="61">
+        <v>0.79</v>
+      </c>
+      <c r="R9" s="76">
+        <f t="shared" ref="R9:R12" si="6">(M9-Q9)/Q9</f>
+        <v>1.2658227848101276E-2</v>
+      </c>
+      <c r="S9" s="77">
+        <v>87.23</v>
+      </c>
+      <c r="T9" s="76">
+        <f t="shared" ref="T9:T12" si="7">(H9-S9)/S9</f>
+        <v>-5.6173334861860493E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="32.5" customHeight="1">
+      <c r="A10" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="57">
+        <v>16</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="60">
+        <v>99.99</v>
+      </c>
+      <c r="H10" s="61">
+        <v>84.55</v>
+      </c>
+      <c r="I10" s="60">
+        <v>0.93</v>
+      </c>
+      <c r="J10" s="61">
+        <v>0.88</v>
+      </c>
+      <c r="K10" s="61">
+        <f t="shared" si="1"/>
+        <v>0.90430939226519336</v>
+      </c>
+      <c r="L10" s="61">
+        <v>0.51</v>
+      </c>
+      <c r="M10" s="61">
+        <v>0.65</v>
+      </c>
+      <c r="N10" s="61">
+        <f t="shared" si="2"/>
+        <v>0.57155172413793098</v>
+      </c>
+      <c r="O10" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" s="63">
+        <f t="shared" si="3"/>
+        <v>188.9858611164031</v>
+      </c>
+      <c r="Q10" s="61">
+        <v>0.64</v>
+      </c>
+      <c r="R10" s="76">
+        <f t="shared" si="6"/>
+        <v>1.5625000000000014E-2</v>
+      </c>
+      <c r="S10" s="77">
+        <v>86.13</v>
+      </c>
+      <c r="T10" s="76">
+        <f t="shared" si="7"/>
+        <v>-1.834436317194936E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="32.5" customHeight="1">
+      <c r="A11" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="57">
+        <v>16</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="60">
+        <v>90.77</v>
+      </c>
+      <c r="H11" s="61">
+        <v>86.37</v>
+      </c>
+      <c r="I11" s="60">
+        <v>0.96</v>
+      </c>
+      <c r="J11" s="61">
+        <v>0.88</v>
+      </c>
+      <c r="K11" s="61">
+        <f t="shared" si="1"/>
+        <v>0.91826086956521746</v>
+      </c>
+      <c r="L11" s="61">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M11" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="N11" s="61">
+        <f t="shared" si="2"/>
+        <v>0.6518518518518519</v>
+      </c>
+      <c r="O11" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" s="63">
+        <f t="shared" si="3"/>
+        <v>181.90011272141709</v>
+      </c>
+      <c r="Q11" s="61">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="R11" s="76">
+        <f t="shared" si="6"/>
+        <v>0.37931034482758635</v>
+      </c>
+      <c r="S11" s="77">
+        <v>87.75</v>
+      </c>
+      <c r="T11" s="76">
+        <f t="shared" si="7"/>
+        <v>-1.5726495726495676E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="32.5" customHeight="1">
+      <c r="A12" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="57">
+        <v>16</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="60">
+        <v>91.15</v>
+      </c>
+      <c r="H12" s="61">
+        <v>86.25</v>
+      </c>
+      <c r="I12" s="60">
+        <v>0.95</v>
+      </c>
+      <c r="J12" s="61">
+        <v>0.88</v>
+      </c>
+      <c r="K12" s="61">
+        <f t="shared" si="1"/>
+        <v>0.91366120218579228</v>
+      </c>
+      <c r="L12" s="61">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M12" s="61">
+        <v>0.77</v>
+      </c>
+      <c r="N12" s="61">
+        <f t="shared" si="2"/>
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="O12" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12" s="63">
+        <f t="shared" si="3"/>
+        <v>182.10532786885247</v>
+      </c>
+      <c r="Q12" s="61">
+        <v>0.61</v>
+      </c>
+      <c r="R12" s="76">
+        <f t="shared" si="6"/>
+        <v>0.26229508196721318</v>
+      </c>
+      <c r="S12" s="77">
+        <v>87.39</v>
+      </c>
+      <c r="T12" s="76">
+        <f t="shared" si="7"/>
+        <v>-1.3044970820460014E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="H14" s="51"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:P12">
+    <filterColumn colId="0"/>
+    <filterColumn colId="1"/>
+    <filterColumn colId="2"/>
+    <filterColumn colId="14">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
+    <col min="2" max="3" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6328125" customWidth="1"/>
+    <col min="17" max="17" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="68">
+        <f t="shared" ref="G1:N1" si="0">AVERAGE(G3:G7)</f>
+        <v>94.213999999999984</v>
+      </c>
+      <c r="H1" s="68">
+        <f t="shared" si="0"/>
+        <v>86.486000000000004</v>
+      </c>
+      <c r="I1" s="68">
+        <f t="shared" si="0"/>
+        <v>0.94800000000000006</v>
+      </c>
+      <c r="J1" s="68">
+        <f t="shared" si="0"/>
+        <v>0.88800000000000012</v>
+      </c>
+      <c r="K1" s="68">
+        <f t="shared" si="0"/>
+        <v>0.91687696133994001</v>
+      </c>
+      <c r="L1" s="68">
+        <f t="shared" si="0"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="M1" s="68">
+        <f t="shared" si="0"/>
+        <v>0.7420000000000001</v>
+      </c>
+      <c r="N1" s="68">
+        <f t="shared" si="0"/>
+        <v>0.63650602714091564</v>
+      </c>
+      <c r="O1" s="27"/>
+      <c r="P1" s="68">
+        <f>AVERAGE(P3:P7)</f>
+        <v>185.39138298848087</v>
+      </c>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="80">
+        <f>AVERAGE(R3:R7)</f>
+        <v>0.16397773092858015</v>
+      </c>
+      <c r="S1" s="27"/>
+      <c r="T1" s="80">
+        <f>AVERAGE(T3:T7)</f>
+        <v>-1.4423889758554497E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="75" customFormat="1">
+      <c r="A2" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="74"/>
+      <c r="P2" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74" t="s">
+        <v>125</v>
+      </c>
+    </row>
     <row r="3" spans="1:20" ht="32.5" customHeight="1">
       <c r="A3" s="24" t="s">
         <v>111</v>
@@ -2017,7 +3010,7 @@
         <v>121</v>
       </c>
       <c r="C3" s="24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>95</v>
@@ -2028,40 +3021,52 @@
       <c r="F3" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50" t="e">
+      <c r="G3" s="49">
+        <v>99.99</v>
+      </c>
+      <c r="H3" s="50">
+        <v>88.52</v>
+      </c>
+      <c r="I3" s="49">
+        <v>0.94</v>
+      </c>
+      <c r="J3" s="50">
+        <v>0.92</v>
+      </c>
+      <c r="K3" s="50">
         <f>(2*(I3*J3))/(I3+J3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50" t="e">
+        <v>0.92989247311827961</v>
+      </c>
+      <c r="L3" s="50">
+        <v>0.63</v>
+      </c>
+      <c r="M3" s="50">
+        <v>0.69</v>
+      </c>
+      <c r="N3" s="50">
         <f>(2*(L3*M3))/(L3+M3)</f>
-        <v>#DIV/0!</v>
+        <v>0.65863636363636369</v>
       </c>
       <c r="O3" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="55" t="e">
+      <c r="P3" s="55">
         <f>SUM(G3:N3)</f>
-        <v>#DIV/0!</v>
+        <v>193.27852883675462</v>
       </c>
       <c r="Q3" s="50">
         <v>0.6</v>
       </c>
-      <c r="R3" s="72">
+      <c r="R3" s="78">
         <f>(M3-Q3)/Q3</f>
-        <v>-1</v>
-      </c>
-      <c r="S3" s="73">
+        <v>0.14999999999999997</v>
+      </c>
+      <c r="S3" s="79">
         <v>90.27</v>
       </c>
-      <c r="T3" s="72">
+      <c r="T3" s="78">
         <f>(H3-S3)/S3</f>
-        <v>-1</v>
+        <v>-1.93862855876814E-2</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="32.5" customHeight="1">
@@ -2072,7 +3077,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>95</v>
@@ -2083,43 +3088,55 @@
       <c r="F4" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50" t="e">
+      <c r="G4" s="49">
+        <v>89.17</v>
+      </c>
+      <c r="H4" s="50">
+        <v>86.74</v>
+      </c>
+      <c r="I4" s="49">
+        <v>0.96</v>
+      </c>
+      <c r="J4" s="50">
+        <v>0.88</v>
+      </c>
+      <c r="K4" s="50">
         <f>(2*(I4*J4))/(I4+J4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50" t="e">
+        <v>0.91826086956521746</v>
+      </c>
+      <c r="L4" s="50">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M4" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="N4" s="50">
         <f>(2*(L4*M4))/(L4+M4)</f>
-        <v>#DIV/0!</v>
+        <v>0.65882352941176481</v>
       </c>
       <c r="O4" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="P4" s="55" t="e">
+      <c r="P4" s="55">
         <f>SUM(G4:N4)</f>
-        <v>#DIV/0!</v>
+        <v>180.68708439897699</v>
       </c>
       <c r="Q4" s="50">
         <v>0.79</v>
       </c>
-      <c r="R4" s="72">
+      <c r="R4" s="78">
         <f t="shared" ref="R4:R7" si="1">(M4-Q4)/Q4</f>
-        <v>-1</v>
-      </c>
-      <c r="S4" s="73">
+        <v>1.2658227848101276E-2</v>
+      </c>
+      <c r="S4" s="79">
         <v>87.23</v>
       </c>
-      <c r="T4" s="72">
+      <c r="T4" s="78">
         <f t="shared" ref="T4:T7" si="2">(H4-S4)/S4</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="32.5" customHeight="1">
+        <v>-5.6173334861860493E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="32.5" hidden="1" customHeight="1">
       <c r="A5" s="24" t="s">
         <v>112</v>
       </c>
@@ -2127,7 +3144,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>95</v>
@@ -2138,40 +3155,50 @@
       <c r="F5" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50" t="e">
+      <c r="G5" s="49">
+        <v>99.99</v>
+      </c>
+      <c r="H5" s="50">
+        <v>84.55</v>
+      </c>
+      <c r="I5" s="49">
+        <v>0.93</v>
+      </c>
+      <c r="J5" s="50">
+        <v>0.88</v>
+      </c>
+      <c r="K5" s="50">
         <f>(2*(I5*J5))/(I5+J5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50" t="e">
+        <v>0.90430939226519336</v>
+      </c>
+      <c r="L5" s="50">
+        <v>0.51</v>
+      </c>
+      <c r="M5" s="50">
+        <v>0.65</v>
+      </c>
+      <c r="N5" s="50">
         <f>(2*(L5*M5))/(L5+M5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O5" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="P5" s="55" t="e">
+        <v>0.57155172413793098</v>
+      </c>
+      <c r="O5" s="54"/>
+      <c r="P5" s="55">
         <f>SUM(G5:N5)</f>
-        <v>#DIV/0!</v>
+        <v>188.9858611164031</v>
       </c>
       <c r="Q5" s="50">
         <v>0.64</v>
       </c>
-      <c r="R5" s="72">
+      <c r="R5" s="78">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="S5" s="73">
+        <v>1.5625000000000014E-2</v>
+      </c>
+      <c r="S5" s="79">
         <v>86.13</v>
       </c>
-      <c r="T5" s="72">
+      <c r="T5" s="78">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-1.834436317194936E-2</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="32.5" customHeight="1">
@@ -2182,7 +3209,7 @@
         <v>121</v>
       </c>
       <c r="C6" s="24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>95</v>
@@ -2193,43 +3220,55 @@
       <c r="F6" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50" t="e">
+      <c r="G6" s="49">
+        <v>90.77</v>
+      </c>
+      <c r="H6" s="50">
+        <v>86.37</v>
+      </c>
+      <c r="I6" s="49">
+        <v>0.96</v>
+      </c>
+      <c r="J6" s="50">
+        <v>0.88</v>
+      </c>
+      <c r="K6" s="50">
         <f>(2*(I6*J6))/(I6+J6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50" t="e">
+        <v>0.91826086956521746</v>
+      </c>
+      <c r="L6" s="50">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M6" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="N6" s="50">
         <f>(2*(L6*M6))/(L6+M6)</f>
-        <v>#DIV/0!</v>
+        <v>0.6518518518518519</v>
       </c>
       <c r="O6" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="P6" s="55" t="e">
+      <c r="P6" s="55">
         <f>SUM(G6:N6)</f>
-        <v>#DIV/0!</v>
+        <v>181.90011272141709</v>
       </c>
       <c r="Q6" s="50">
         <v>0.57999999999999996</v>
       </c>
-      <c r="R6" s="72">
+      <c r="R6" s="78">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="S6" s="73">
+        <v>0.37931034482758635</v>
+      </c>
+      <c r="S6" s="79">
         <v>87.75</v>
       </c>
-      <c r="T6" s="72">
+      <c r="T6" s="78">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="32.5" customHeight="1">
+        <v>-1.5726495726495676E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="32.5" hidden="1" customHeight="1">
       <c r="A7" s="24" t="s">
         <v>112</v>
       </c>
@@ -2237,7 +3276,7 @@
         <v>121</v>
       </c>
       <c r="C7" s="24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>95</v>
@@ -2248,40 +3287,50 @@
       <c r="F7" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50" t="e">
+      <c r="G7" s="49">
+        <v>91.15</v>
+      </c>
+      <c r="H7" s="50">
+        <v>86.25</v>
+      </c>
+      <c r="I7" s="49">
+        <v>0.95</v>
+      </c>
+      <c r="J7" s="50">
+        <v>0.88</v>
+      </c>
+      <c r="K7" s="50">
         <f>(2*(I7*J7))/(I7+J7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50" t="e">
+        <v>0.91366120218579228</v>
+      </c>
+      <c r="L7" s="50">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M7" s="50">
+        <v>0.77</v>
+      </c>
+      <c r="N7" s="50">
         <f>(2*(L7*M7))/(L7+M7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="P7" s="55" t="e">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="O7" s="54"/>
+      <c r="P7" s="55">
         <f>SUM(G7:N7)</f>
-        <v>#DIV/0!</v>
+        <v>182.10532786885247</v>
       </c>
       <c r="Q7" s="50">
         <v>0.61</v>
       </c>
-      <c r="R7" s="72">
+      <c r="R7" s="78">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="S7" s="73">
+        <v>0.26229508196721318</v>
+      </c>
+      <c r="S7" s="79">
         <v>87.39</v>
       </c>
-      <c r="T7" s="72">
+      <c r="T7" s="78">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-1.3044970820460014E-2</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -2295,10 +3344,14 @@
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
-    <filterColumn colId="14"/>
+    <filterColumn colId="14">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="G3:G7">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -2310,6 +3363,1510 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I7">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J7">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K7">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M7">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P7">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R7">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
+    <col min="2" max="4" width="9.08984375" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6328125" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.6328125" customWidth="1"/>
+    <col min="18" max="18" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="68">
+        <f>AVERAGE(H3:H3)</f>
+        <v>99.99</v>
+      </c>
+      <c r="I1" s="68">
+        <f>AVERAGE(I3:I3)</f>
+        <v>88.52</v>
+      </c>
+      <c r="J1" s="68">
+        <f>AVERAGE(J3:J3)</f>
+        <v>0.94</v>
+      </c>
+      <c r="K1" s="68">
+        <f>AVERAGE(K3:K3)</f>
+        <v>0.92</v>
+      </c>
+      <c r="L1" s="68">
+        <f>AVERAGE(L3:L3)</f>
+        <v>0.92989247311827961</v>
+      </c>
+      <c r="M1" s="68">
+        <f>AVERAGE(M3:M3)</f>
+        <v>0.63</v>
+      </c>
+      <c r="N1" s="68">
+        <f>AVERAGE(N3:N3)</f>
+        <v>0.69</v>
+      </c>
+      <c r="O1" s="68">
+        <f>AVERAGE(O3:O3)</f>
+        <v>0.65863636363636369</v>
+      </c>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="68">
+        <f>AVERAGE(Q3:Q3)</f>
+        <v>193.27852883675462</v>
+      </c>
+      <c r="R1" s="27"/>
+      <c r="S1" s="80">
+        <f>AVERAGE(S3:S3)</f>
+        <v>0</v>
+      </c>
+      <c r="T1" s="27"/>
+      <c r="U1" s="80">
+        <f>AVERAGE(U3:U3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="75" customFormat="1">
+      <c r="A2" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="130.5">
+      <c r="A3" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="24">
+        <v>16</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="49">
+        <v>99.99</v>
+      </c>
+      <c r="I3" s="50">
+        <v>88.52</v>
+      </c>
+      <c r="J3" s="49">
+        <v>0.94</v>
+      </c>
+      <c r="K3" s="50">
+        <v>0.92</v>
+      </c>
+      <c r="L3" s="50">
+        <f>(2*(J3*K3))/(J3+K3)</f>
+        <v>0.92989247311827961</v>
+      </c>
+      <c r="M3" s="50">
+        <v>0.63</v>
+      </c>
+      <c r="N3" s="50">
+        <v>0.69</v>
+      </c>
+      <c r="O3" s="50">
+        <f>(2*(M3*N3))/(M3+N3)</f>
+        <v>0.65863636363636369</v>
+      </c>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="55">
+        <f>SUM(H3:O3)</f>
+        <v>193.27852883675462</v>
+      </c>
+      <c r="R3" s="50">
+        <v>0.69</v>
+      </c>
+      <c r="S3" s="78">
+        <f t="shared" ref="S3:S5" si="0">(N3-R3)/R3</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="50">
+        <v>88.52</v>
+      </c>
+      <c r="U3" s="78">
+        <f t="shared" ref="U3:U5" si="1">(I3-T3)/T3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="130.5">
+      <c r="A4" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="57">
+        <v>16</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="60">
+        <v>99.7</v>
+      </c>
+      <c r="I4" s="61">
+        <v>89.17</v>
+      </c>
+      <c r="J4" s="60">
+        <v>0.95</v>
+      </c>
+      <c r="K4" s="61">
+        <v>0.92</v>
+      </c>
+      <c r="L4" s="61">
+        <f t="shared" ref="L4:L5" si="2">(2*(J4*K4))/(J4+K4)</f>
+        <v>0.93475935828876999</v>
+      </c>
+      <c r="M4" s="61">
+        <v>0.64</v>
+      </c>
+      <c r="N4" s="61">
+        <v>0.72</v>
+      </c>
+      <c r="O4" s="61">
+        <f t="shared" ref="O4:O5" si="3">(2*(M4*N4))/(M4+N4)</f>
+        <v>0.67764705882352949</v>
+      </c>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="63">
+        <f t="shared" ref="Q4:Q5" si="4">SUM(H4:O4)</f>
+        <v>193.71240641711228</v>
+      </c>
+      <c r="R4" s="61">
+        <v>0.69</v>
+      </c>
+      <c r="S4" s="76">
+        <f t="shared" si="0"/>
+        <v>4.3478260869565258E-2</v>
+      </c>
+      <c r="T4" s="61">
+        <v>88.52</v>
+      </c>
+      <c r="U4" s="76">
+        <f t="shared" si="1"/>
+        <v>7.3429733393584017E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="130.5">
+      <c r="A5" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="24">
+        <v>16</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="49">
+        <v>99.95</v>
+      </c>
+      <c r="I5" s="50">
+        <v>88.97</v>
+      </c>
+      <c r="J5" s="49">
+        <v>0.94</v>
+      </c>
+      <c r="K5" s="50">
+        <v>0.92</v>
+      </c>
+      <c r="L5" s="50">
+        <f t="shared" si="2"/>
+        <v>0.92989247311827961</v>
+      </c>
+      <c r="M5" s="50">
+        <v>0.64</v>
+      </c>
+      <c r="N5" s="50">
+        <v>0.71</v>
+      </c>
+      <c r="O5" s="50">
+        <f t="shared" si="3"/>
+        <v>0.67318518518518511</v>
+      </c>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="55">
+        <f t="shared" si="4"/>
+        <v>193.73307765830347</v>
+      </c>
+      <c r="R5" s="50">
+        <v>0.69</v>
+      </c>
+      <c r="S5" s="78">
+        <f t="shared" si="0"/>
+        <v>2.898550724637684E-2</v>
+      </c>
+      <c r="T5" s="50">
+        <v>88.52</v>
+      </c>
+      <c r="U5" s="78">
+        <f t="shared" si="1"/>
+        <v>5.0835969272481117E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:Q3">
+    <filterColumn colId="0"/>
+    <filterColumn colId="1"/>
+    <filterColumn colId="2"/>
+    <filterColumn colId="3"/>
+    <filterColumn colId="15"/>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
+    <col min="2" max="4" width="9.08984375" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6328125" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.6328125" customWidth="1"/>
+    <col min="18" max="18" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="68">
+        <f>AVERAGE(H3:H3)</f>
+        <v>89.17</v>
+      </c>
+      <c r="I1" s="68">
+        <f>AVERAGE(I3:I3)</f>
+        <v>86.74</v>
+      </c>
+      <c r="J1" s="68">
+        <f>AVERAGE(J3:J3)</f>
+        <v>0.96</v>
+      </c>
+      <c r="K1" s="68">
+        <f>AVERAGE(K3:K3)</f>
+        <v>0.88</v>
+      </c>
+      <c r="L1" s="68">
+        <f>AVERAGE(L3:L3)</f>
+        <v>0.91826086956521746</v>
+      </c>
+      <c r="M1" s="68">
+        <f>AVERAGE(M3:M3)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N1" s="68">
+        <f>AVERAGE(N3:N3)</f>
+        <v>0.8</v>
+      </c>
+      <c r="O1" s="68">
+        <f>AVERAGE(O3:O3)</f>
+        <v>0.65882352941176481</v>
+      </c>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="68">
+        <f>AVERAGE(Q3:Q3)</f>
+        <v>180.68708439897699</v>
+      </c>
+      <c r="R1" s="27"/>
+      <c r="S1" s="80">
+        <f>AVERAGE(S3:S3)</f>
+        <v>0</v>
+      </c>
+      <c r="T1" s="27"/>
+      <c r="U1" s="80">
+        <f>AVERAGE(U3:U3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="75" customFormat="1">
+      <c r="A2" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="57">
+        <v>16</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="60">
+        <v>89.17</v>
+      </c>
+      <c r="I3" s="61">
+        <v>86.74</v>
+      </c>
+      <c r="J3" s="60">
+        <v>0.96</v>
+      </c>
+      <c r="K3" s="61">
+        <v>0.88</v>
+      </c>
+      <c r="L3" s="61">
+        <f>(2*(J3*K3))/(J3+K3)</f>
+        <v>0.91826086956521746</v>
+      </c>
+      <c r="M3" s="61">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N3" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="O3" s="61">
+        <f>(2*(M3*N3))/(M3+N3)</f>
+        <v>0.65882352941176481</v>
+      </c>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="63">
+        <f>SUM(H3:O3)</f>
+        <v>180.68708439897699</v>
+      </c>
+      <c r="R3" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="S3" s="76">
+        <f t="shared" ref="S3:S5" si="0">(N3-R3)/R3</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="61">
+        <v>86.74</v>
+      </c>
+      <c r="U3" s="76">
+        <f t="shared" ref="U3:U5" si="1">(I3-T3)/T3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="43.5">
+      <c r="A4" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="24">
+        <v>16</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="49">
+        <v>95.53</v>
+      </c>
+      <c r="I4" s="50">
+        <v>85.48</v>
+      </c>
+      <c r="J4" s="49">
+        <v>0.91</v>
+      </c>
+      <c r="K4" s="50">
+        <v>0.92</v>
+      </c>
+      <c r="L4" s="50">
+        <f t="shared" ref="L4:L5" si="2">(2*(J4*K4))/(J4+K4)</f>
+        <v>0.91497267759562839</v>
+      </c>
+      <c r="M4" s="50">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N4" s="50">
+        <v>0.49</v>
+      </c>
+      <c r="O4" s="50">
+        <f t="shared" ref="O4:O5" si="3">(2*(M4*N4))/(M4+N4)</f>
+        <v>0.51826923076923082</v>
+      </c>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="55">
+        <f t="shared" ref="Q4:Q5" si="4">SUM(H4:O4)</f>
+        <v>185.31324190836486</v>
+      </c>
+      <c r="R4" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="S4" s="78">
+        <f t="shared" si="0"/>
+        <v>-0.38750000000000007</v>
+      </c>
+      <c r="T4" s="50">
+        <v>86.74</v>
+      </c>
+      <c r="U4" s="78">
+        <f t="shared" si="1"/>
+        <v>-1.4526170163707528E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="43.5">
+      <c r="A5" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="24">
+        <v>16</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="49">
+        <v>95.53</v>
+      </c>
+      <c r="I5" s="50">
+        <v>85.48</v>
+      </c>
+      <c r="J5" s="49">
+        <v>0.91</v>
+      </c>
+      <c r="K5" s="50">
+        <v>0.92</v>
+      </c>
+      <c r="L5" s="50">
+        <f t="shared" ref="L5" si="5">(2*(J5*K5))/(J5+K5)</f>
+        <v>0.91497267759562839</v>
+      </c>
+      <c r="M5" s="50">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N5" s="50">
+        <v>0.49</v>
+      </c>
+      <c r="O5" s="50">
+        <f t="shared" ref="O5" si="6">(2*(M5*N5))/(M5+N5)</f>
+        <v>0.51826923076923082</v>
+      </c>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="55">
+        <f t="shared" ref="Q5" si="7">SUM(H5:O5)</f>
+        <v>185.31324190836486</v>
+      </c>
+      <c r="R5" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="S5" s="78">
+        <f t="shared" ref="S5" si="8">(N5-R5)/R5</f>
+        <v>-0.38750000000000007</v>
+      </c>
+      <c r="T5" s="50">
+        <v>86.74</v>
+      </c>
+      <c r="U5" s="78">
+        <f t="shared" ref="U5" si="9">(I5-T5)/T5</f>
+        <v>-1.4526170163707528E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:Q3">
+    <filterColumn colId="0"/>
+    <filterColumn colId="1"/>
+    <filterColumn colId="2"/>
+    <filterColumn colId="3"/>
+    <filterColumn colId="15"/>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
+    <col min="2" max="4" width="9.08984375" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6328125" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.6328125" customWidth="1"/>
+    <col min="18" max="18" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="68">
+        <f>AVERAGE(H3:H3)</f>
+        <v>90.77</v>
+      </c>
+      <c r="I1" s="68">
+        <f>AVERAGE(I3:I3)</f>
+        <v>86.37</v>
+      </c>
+      <c r="J1" s="68">
+        <f>AVERAGE(J3:J3)</f>
+        <v>0.96</v>
+      </c>
+      <c r="K1" s="68">
+        <f>AVERAGE(K3:K3)</f>
+        <v>0.88</v>
+      </c>
+      <c r="L1" s="68">
+        <f>AVERAGE(L3:L3)</f>
+        <v>0.91826086956521746</v>
+      </c>
+      <c r="M1" s="68">
+        <f>AVERAGE(M3:M3)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N1" s="68">
+        <f>AVERAGE(N3:N3)</f>
+        <v>0.8</v>
+      </c>
+      <c r="O1" s="68">
+        <f>AVERAGE(O3:O3)</f>
+        <v>0.6518518518518519</v>
+      </c>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="68">
+        <f>AVERAGE(Q3:Q3)</f>
+        <v>181.90011272141709</v>
+      </c>
+      <c r="R1" s="27"/>
+      <c r="S1" s="80">
+        <f>AVERAGE(S3:S3)</f>
+        <v>0</v>
+      </c>
+      <c r="T1" s="27"/>
+      <c r="U1" s="80">
+        <f>AVERAGE(U3:U3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="75" customFormat="1">
+      <c r="A2" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="160" customHeight="1">
+      <c r="A3" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="57">
+        <v>16</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="60">
+        <v>90.77</v>
+      </c>
+      <c r="I3" s="61">
+        <v>86.37</v>
+      </c>
+      <c r="J3" s="60">
+        <v>0.96</v>
+      </c>
+      <c r="K3" s="61">
+        <v>0.88</v>
+      </c>
+      <c r="L3" s="61">
+        <f>(2*(J3*K3))/(J3+K3)</f>
+        <v>0.91826086956521746</v>
+      </c>
+      <c r="M3" s="61">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N3" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="O3" s="61">
+        <f>(2*(M3*N3))/(M3+N3)</f>
+        <v>0.6518518518518519</v>
+      </c>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="63">
+        <f>SUM(H3:O3)</f>
+        <v>181.90011272141709</v>
+      </c>
+      <c r="R3" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="S3" s="76">
+        <f t="shared" ref="S3" si="0">(N3-R3)/R3</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="61">
+        <v>86.37</v>
+      </c>
+      <c r="U3" s="76">
+        <f t="shared" ref="U3:U4" si="1">(I3-T3)/T3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="27" customFormat="1" ht="174.5" customHeight="1">
+      <c r="A4" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="24">
+        <v>16</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="49">
+        <v>92.85</v>
+      </c>
+      <c r="I4" s="50">
+        <v>85.08</v>
+      </c>
+      <c r="J4" s="49">
+        <v>0.94</v>
+      </c>
+      <c r="K4" s="50">
+        <v>0.88</v>
+      </c>
+      <c r="L4" s="50">
+        <f>(2*(J4*K4))/(J4+K4)</f>
+        <v>0.90901098901098898</v>
+      </c>
+      <c r="M4" s="50">
+        <v>0.52</v>
+      </c>
+      <c r="N4" s="50">
+        <v>0.69</v>
+      </c>
+      <c r="O4" s="50">
+        <f>(2*(M4*N4))/(M4+N4)</f>
+        <v>0.59305785123966948</v>
+      </c>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="55">
+        <f t="shared" ref="Q4" si="2">SUM(H4:O4)</f>
+        <v>182.46206884025068</v>
+      </c>
+      <c r="R4" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="S4" s="78">
+        <f t="shared" ref="S4" si="3">(N4-R4)/R4</f>
+        <v>-0.13750000000000012</v>
+      </c>
+      <c r="T4" s="50">
+        <v>86.37</v>
+      </c>
+      <c r="U4" s="78">
+        <f t="shared" si="1"/>
+        <v>-1.4935741576936508E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:Q3">
+    <filterColumn colId="0"/>
+    <filterColumn colId="1"/>
+    <filterColumn colId="2"/>
+    <filterColumn colId="3"/>
+    <filterColumn colId="15"/>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
+    <col min="2" max="4" width="9.08984375" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6328125" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.6328125" customWidth="1"/>
+    <col min="18" max="18" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="68">
+        <f>AVERAGE(H3:H5)</f>
+        <v>93.31</v>
+      </c>
+      <c r="I1" s="68">
+        <f>AVERAGE(I3:I5)</f>
+        <v>87.21</v>
+      </c>
+      <c r="J1" s="68">
+        <f>AVERAGE(J3:J5)</f>
+        <v>0.95333333333333325</v>
+      </c>
+      <c r="K1" s="68">
+        <f>AVERAGE(K3:K5)</f>
+        <v>0.89333333333333342</v>
+      </c>
+      <c r="L1" s="68">
+        <f>AVERAGE(L3:L5)</f>
+        <v>0.92213807074957155</v>
+      </c>
+      <c r="M1" s="68">
+        <f>AVERAGE(M3:M5)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N1" s="68">
+        <f>AVERAGE(N3:N5)</f>
+        <v>0.76333333333333331</v>
+      </c>
+      <c r="O1" s="68">
+        <f>AVERAGE(O3:O5)</f>
+        <v>0.6564372482999935</v>
+      </c>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="68">
+        <f>AVERAGE(Q3:Q5)</f>
+        <v>185.28857531904956</v>
+      </c>
+      <c r="R1" s="27"/>
+      <c r="S1" s="80">
+        <f>AVERAGE(S3:S5)</f>
+        <v>20.12</v>
+      </c>
+      <c r="T1" s="27"/>
+      <c r="U1" s="80"/>
+    </row>
+    <row r="2" spans="1:21" s="75" customFormat="1">
+      <c r="A2" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+    </row>
+    <row r="3" spans="1:21" ht="32.5" customHeight="1">
+      <c r="A3" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="24">
+        <v>16</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="49">
+        <v>99.99</v>
+      </c>
+      <c r="I3" s="50">
+        <v>88.52</v>
+      </c>
+      <c r="J3" s="49">
+        <v>0.94</v>
+      </c>
+      <c r="K3" s="50">
+        <v>0.92</v>
+      </c>
+      <c r="L3" s="50">
+        <f>(2*(J3*K3))/(J3+K3)</f>
+        <v>0.92989247311827961</v>
+      </c>
+      <c r="M3" s="50">
+        <v>0.63</v>
+      </c>
+      <c r="N3" s="50">
+        <v>0.69</v>
+      </c>
+      <c r="O3" s="50">
+        <f>(2*(M3*N3))/(M3+N3)</f>
+        <v>0.65863636363636369</v>
+      </c>
+      <c r="P3" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" s="55">
+        <f>SUM(H3:O3)</f>
+        <v>193.27852883675462</v>
+      </c>
+      <c r="R3" s="50"/>
+      <c r="S3" s="81">
+        <v>3.26</v>
+      </c>
+      <c r="T3" s="79"/>
+      <c r="U3" s="78"/>
+    </row>
+    <row r="4" spans="1:21" ht="32.5" customHeight="1">
+      <c r="A4" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="24">
+        <v>16</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="49">
+        <v>89.17</v>
+      </c>
+      <c r="I4" s="50">
+        <v>86.74</v>
+      </c>
+      <c r="J4" s="49">
+        <v>0.96</v>
+      </c>
+      <c r="K4" s="50">
+        <v>0.88</v>
+      </c>
+      <c r="L4" s="50">
+        <f>(2*(J4*K4))/(J4+K4)</f>
+        <v>0.91826086956521746</v>
+      </c>
+      <c r="M4" s="50">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N4" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="O4" s="50">
+        <f>(2*(M4*N4))/(M4+N4)</f>
+        <v>0.65882352941176481</v>
+      </c>
+      <c r="P4" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="55">
+        <f>SUM(H4:O4)</f>
+        <v>180.68708439897699</v>
+      </c>
+      <c r="R4" s="50"/>
+      <c r="S4" s="81">
+        <v>20.3</v>
+      </c>
+      <c r="T4" s="79"/>
+      <c r="U4" s="78"/>
+    </row>
+    <row r="5" spans="1:21" ht="32.5" customHeight="1">
+      <c r="A5" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="24">
+        <v>16</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="49">
+        <v>90.77</v>
+      </c>
+      <c r="I5" s="50">
+        <v>86.37</v>
+      </c>
+      <c r="J5" s="49">
+        <v>0.96</v>
+      </c>
+      <c r="K5" s="50">
+        <v>0.88</v>
+      </c>
+      <c r="L5" s="50">
+        <f>(2*(J5*K5))/(J5+K5)</f>
+        <v>0.91826086956521746</v>
+      </c>
+      <c r="M5" s="50">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N5" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="O5" s="50">
+        <f>(2*(M5*N5))/(M5+N5)</f>
+        <v>0.6518518518518519</v>
+      </c>
+      <c r="P5" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="55">
+        <f>SUM(H5:O5)</f>
+        <v>181.90011272141709</v>
+      </c>
+      <c r="R5" s="50"/>
+      <c r="S5" s="81">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="T5" s="79"/>
+      <c r="U5" s="78"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="I7" s="51"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:Q5">
+    <filterColumn colId="0"/>
+    <filterColumn colId="1"/>
+    <filterColumn colId="2"/>
+    <filterColumn colId="3"/>
+    <filterColumn colId="15"/>
+  </autoFilter>
+  <conditionalFormatting sqref="H3:H5">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I5">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2321,7 +4878,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I7">
+  <conditionalFormatting sqref="J3:J5">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K5">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2333,7 +4902,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J7">
+  <conditionalFormatting sqref="L3:L5">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M5">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2345,7 +4926,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K7">
+  <conditionalFormatting sqref="N3:N5">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O5">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2357,8 +4950,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L7">
-    <cfRule type="colorScale" priority="43">
+  <conditionalFormatting sqref="Q3:Q5">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -2369,56 +4962,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M7">
-    <cfRule type="colorScale" priority="45">
+  <conditionalFormatting sqref="S3:S5">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N7">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P7">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T7">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R7">
-    <cfRule type="colorScale" priority="53">
+  <conditionalFormatting sqref="U3:U5">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6717,7 +9274,7 @@
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6864,7 +9421,7 @@
         <v>102</v>
       </c>
       <c r="N3" s="55">
-        <f>SUM(E3:L3)</f>
+        <f t="shared" ref="N3:N9" si="1">SUM(E3:L3)</f>
         <v>195.2794514062935</v>
       </c>
     </row>
@@ -6909,7 +9466,7 @@
         <v>102</v>
       </c>
       <c r="N4" s="55">
-        <f>SUM(E4:L4)</f>
+        <f t="shared" si="1"/>
         <v>184.69288943958958</v>
       </c>
     </row>
@@ -6954,7 +9511,7 @@
         <v>102</v>
       </c>
       <c r="N5" s="55">
-        <f>SUM(E5:L5)</f>
+        <f t="shared" si="1"/>
         <v>185.89691821808512</v>
       </c>
     </row>
@@ -6999,7 +9556,7 @@
         <v>102</v>
       </c>
       <c r="N6" s="55">
-        <f>SUM(E6:L6)</f>
+        <f t="shared" si="1"/>
         <v>192.05000000000007</v>
       </c>
     </row>
@@ -7044,7 +9601,7 @@
         <v>102</v>
       </c>
       <c r="N7" s="55">
-        <f>SUM(E7:L7)</f>
+        <f t="shared" si="1"/>
         <v>173.70745959922428</v>
       </c>
     </row>
@@ -7089,7 +9646,7 @@
         <v>102</v>
       </c>
       <c r="N8" s="55">
-        <f>SUM(E8:L8)</f>
+        <f t="shared" si="1"/>
         <v>191.59959482171249</v>
       </c>
     </row>
@@ -7134,7 +9691,7 @@
         <v>102</v>
       </c>
       <c r="N9" s="55">
-        <f>SUM(E9:L9)</f>
+        <f t="shared" si="1"/>
         <v>191.26958835758833</v>
       </c>
     </row>
@@ -7262,10 +9819,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7333,6 +9890,14 @@
         <f>AVERAGE(O3:O9)</f>
         <v>184.33201606749142</v>
       </c>
+      <c r="Q1" s="80">
+        <f>AVERAGE(Q3:Q9)</f>
+        <v>0.19410710083704039</v>
+      </c>
+      <c r="S1" s="80">
+        <f>AVERAGE(S3:S9)</f>
+        <v>-3.0716165181893511E-2</v>
+      </c>
     </row>
     <row r="2" spans="1:19" s="75" customFormat="1">
       <c r="A2" s="69" t="s">
@@ -7414,7 +9979,7 @@
         <v>0.96</v>
       </c>
       <c r="J3" s="50">
-        <f>(2*(H3*I3))/(H3+I3)</f>
+        <f t="shared" ref="J3:J9" si="1">(2*(H3*I3))/(H3+I3)</f>
         <v>0.94476190476190469</v>
       </c>
       <c r="K3" s="50">
@@ -7424,14 +9989,14 @@
         <v>0.6</v>
       </c>
       <c r="M3" s="50">
-        <f>(2*(K3*L3))/(K3+L3)</f>
+        <f t="shared" ref="M3:M9" si="2">(2*(K3*L3))/(K3+L3)</f>
         <v>0.66268656716417917</v>
       </c>
       <c r="N3" s="54" t="s">
         <v>102</v>
       </c>
       <c r="O3" s="55">
-        <f>SUM(F3:M3)</f>
+        <f t="shared" ref="O3:O9" si="3">SUM(F3:M3)</f>
         <v>195.10744847192609</v>
       </c>
       <c r="P3" s="50">
@@ -7478,7 +10043,7 @@
         <v>0.81</v>
       </c>
       <c r="J4" s="50">
-        <f>(2*(H4*I4))/(H4+I4)</f>
+        <f t="shared" si="1"/>
         <v>0.8786440677966102</v>
       </c>
       <c r="K4" s="50">
@@ -7488,26 +10053,26 @@
         <v>0.8</v>
       </c>
       <c r="M4" s="50">
-        <f>(2*(K4*L4))/(K4+L4)</f>
+        <f t="shared" si="2"/>
         <v>0.56774193548387097</v>
       </c>
       <c r="N4" s="54"/>
       <c r="O4" s="55">
-        <f>SUM(F4:M4)</f>
+        <f t="shared" si="3"/>
         <v>176.7663860032805</v>
       </c>
       <c r="P4" s="50">
         <v>0.55000000000000004</v>
       </c>
       <c r="Q4" s="72">
-        <f t="shared" ref="Q4:Q9" si="1">(L4-P4)/P4</f>
+        <f t="shared" ref="Q4:Q9" si="4">(L4-P4)/P4</f>
         <v>0.45454545454545453</v>
       </c>
       <c r="R4" s="73">
         <v>88.73</v>
       </c>
       <c r="S4" s="72">
-        <f t="shared" ref="S4:S9" si="2">(G4-R4)/R4</f>
+        <f t="shared" ref="S4:S9" si="5">(G4-R4)/R4</f>
         <v>-9.2302490702130022E-2</v>
       </c>
     </row>
@@ -7540,7 +10105,7 @@
         <v>0.89</v>
       </c>
       <c r="J5" s="50">
-        <f>(2*(H5*I5))/(H5+I5)</f>
+        <f t="shared" si="1"/>
         <v>0.92367567567567554</v>
       </c>
       <c r="K5" s="50">
@@ -7550,28 +10115,28 @@
         <v>0.79</v>
       </c>
       <c r="M5" s="50">
-        <f>(2*(K5*L5))/(K5+L5)</f>
+        <f t="shared" si="2"/>
         <v>0.6622058823529412</v>
       </c>
       <c r="N5" s="54" t="s">
         <v>102</v>
       </c>
       <c r="O5" s="55">
-        <f>SUM(F5:M5)</f>
+        <f t="shared" si="3"/>
         <v>180.0858815580286</v>
       </c>
       <c r="P5" s="50">
         <v>0.55000000000000004</v>
       </c>
       <c r="Q5" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.43636363636363629</v>
       </c>
       <c r="R5" s="73">
         <v>89.66</v>
       </c>
       <c r="S5" s="72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-2.7102386794557135E-2</v>
       </c>
     </row>
@@ -7604,7 +10169,7 @@
         <v>0.9</v>
       </c>
       <c r="J6" s="50">
-        <f>(2*(H6*I6))/(H6+I6)</f>
+        <f t="shared" si="1"/>
         <v>0.9147540983606558</v>
       </c>
       <c r="K6" s="50">
@@ -7614,28 +10179,28 @@
         <v>0.64</v>
       </c>
       <c r="M6" s="50">
-        <f>(2*(K6*L6))/(K6+L6)</f>
+        <f t="shared" si="2"/>
         <v>0.59733333333333338</v>
       </c>
       <c r="N6" s="54" t="s">
         <v>102</v>
       </c>
       <c r="O6" s="55">
-        <f>SUM(F6:M6)</f>
+        <f t="shared" si="3"/>
         <v>190.67208743169397</v>
       </c>
       <c r="P6" s="50">
         <v>0.61</v>
       </c>
       <c r="Q6" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.9180327868852507E-2</v>
       </c>
       <c r="R6" s="73">
         <v>87.43</v>
       </c>
       <c r="S6" s="72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.4869038087613076E-2</v>
       </c>
     </row>
@@ -7668,7 +10233,7 @@
         <v>0.77</v>
       </c>
       <c r="J7" s="50">
-        <f>(2*(H7*I7))/(H7+I7)</f>
+        <f t="shared" si="1"/>
         <v>0.85456647398843932</v>
       </c>
       <c r="K7" s="50">
@@ -7678,26 +10243,26 @@
         <v>0.83</v>
       </c>
       <c r="M7" s="50">
-        <f>(2*(K7*L7))/(K7+L7)</f>
+        <f t="shared" si="2"/>
         <v>0.54887096774193533</v>
       </c>
       <c r="N7" s="54"/>
       <c r="O7" s="55">
-        <f>SUM(F7:M7)</f>
+        <f t="shared" si="3"/>
         <v>164.1934374417304</v>
       </c>
       <c r="P7" s="50">
         <v>0.66</v>
       </c>
       <c r="Q7" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.25757575757575746</v>
       </c>
       <c r="R7" s="73">
         <v>85.36</v>
       </c>
       <c r="S7" s="72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-8.5520149953139613E-2</v>
       </c>
     </row>
@@ -7730,7 +10295,7 @@
         <v>0.93</v>
       </c>
       <c r="J8" s="50">
-        <f>(2*(H8*I8))/(H8+I8)</f>
+        <f t="shared" si="1"/>
         <v>0.92497297297297298</v>
       </c>
       <c r="K8" s="50">
@@ -7740,28 +10305,28 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="M8" s="50">
-        <f>(2*(K8*L8))/(K8+L8)</f>
+        <f t="shared" si="2"/>
         <v>0.60396694214876034</v>
       </c>
       <c r="N8" s="54" t="s">
         <v>102</v>
       </c>
       <c r="O8" s="55">
-        <f>SUM(F8:M8)</f>
+        <f t="shared" si="3"/>
         <v>192.12893991512175</v>
       </c>
       <c r="P8" s="50">
         <v>0.57999999999999996</v>
       </c>
       <c r="Q8" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R8" s="73">
         <v>87.47</v>
       </c>
       <c r="S8" s="72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.2010975191494357E-3</v>
       </c>
     </row>
@@ -7794,7 +10359,7 @@
         <v>0.92</v>
       </c>
       <c r="J9" s="50">
-        <f>(2*(H9*I9))/(H9+I9)</f>
+        <f t="shared" si="1"/>
         <v>0.92497297297297298</v>
       </c>
       <c r="K9" s="50">
@@ -7804,28 +10369,28 @@
         <v>0.61</v>
       </c>
       <c r="M9" s="50">
-        <f>(2*(K9*L9))/(K9+L9)</f>
+        <f t="shared" si="2"/>
         <v>0.60495867768595046</v>
       </c>
       <c r="N9" s="54" t="s">
         <v>102</v>
       </c>
       <c r="O9" s="55">
-        <f>SUM(F9:M9)</f>
+        <f t="shared" si="3"/>
         <v>191.36993165065891</v>
       </c>
       <c r="P9" s="50">
         <v>0.56999999999999995</v>
       </c>
       <c r="Q9" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.0175438596491294E-2</v>
       </c>
       <c r="R9" s="73">
         <v>87.06</v>
       </c>
       <c r="S9" s="72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.790489317711903E-3</v>
       </c>
     </row>

--- a/PBS Result.xlsx
+++ b/PBS Result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="410" yWindow="110" windowWidth="13380" windowHeight="4340" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="410" yWindow="110" windowWidth="13380" windowHeight="4340" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="TL" sheetId="4" r:id="rId1"/>
@@ -908,7 +908,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1103,6 +1103,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2043,7 +2044,7 @@
     <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2866,7 +2867,7 @@
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3529,35 +3530,35 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="68">
-        <f>AVERAGE(H3:H3)</f>
+        <f t="shared" ref="H1:O1" si="0">AVERAGE(H3:H3)</f>
         <v>99.99</v>
       </c>
       <c r="I1" s="68">
-        <f>AVERAGE(I3:I3)</f>
+        <f t="shared" si="0"/>
         <v>88.52</v>
       </c>
       <c r="J1" s="68">
-        <f>AVERAGE(J3:J3)</f>
+        <f t="shared" si="0"/>
         <v>0.94</v>
       </c>
       <c r="K1" s="68">
-        <f>AVERAGE(K3:K3)</f>
+        <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
       <c r="L1" s="68">
-        <f>AVERAGE(L3:L3)</f>
+        <f t="shared" si="0"/>
         <v>0.92989247311827961</v>
       </c>
       <c r="M1" s="68">
-        <f>AVERAGE(M3:M3)</f>
+        <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
       <c r="N1" s="68">
-        <f>AVERAGE(N3:N3)</f>
+        <f t="shared" si="0"/>
         <v>0.69</v>
       </c>
       <c r="O1" s="68">
-        <f>AVERAGE(O3:O3)</f>
+        <f t="shared" si="0"/>
         <v>0.65863636363636369</v>
       </c>
       <c r="P1" s="27"/>
@@ -3692,14 +3693,14 @@
         <v>0.69</v>
       </c>
       <c r="S3" s="78">
-        <f t="shared" ref="S3:S5" si="0">(N3-R3)/R3</f>
+        <f t="shared" ref="S3:S5" si="1">(N3-R3)/R3</f>
         <v>0</v>
       </c>
       <c r="T3" s="50">
         <v>88.52</v>
       </c>
       <c r="U3" s="78">
-        <f t="shared" ref="U3:U5" si="1">(I3-T3)/T3</f>
+        <f t="shared" ref="U3:U5" si="2">(I3-T3)/T3</f>
         <v>0</v>
       </c>
     </row>
@@ -3738,7 +3739,7 @@
         <v>0.92</v>
       </c>
       <c r="L4" s="61">
-        <f t="shared" ref="L4:L5" si="2">(2*(J4*K4))/(J4+K4)</f>
+        <f t="shared" ref="L4:L5" si="3">(2*(J4*K4))/(J4+K4)</f>
         <v>0.93475935828876999</v>
       </c>
       <c r="M4" s="61">
@@ -3748,26 +3749,26 @@
         <v>0.72</v>
       </c>
       <c r="O4" s="61">
-        <f t="shared" ref="O4:O5" si="3">(2*(M4*N4))/(M4+N4)</f>
+        <f t="shared" ref="O4:O5" si="4">(2*(M4*N4))/(M4+N4)</f>
         <v>0.67764705882352949</v>
       </c>
       <c r="P4" s="62"/>
       <c r="Q4" s="63">
-        <f t="shared" ref="Q4:Q5" si="4">SUM(H4:O4)</f>
+        <f t="shared" ref="Q4:Q5" si="5">SUM(H4:O4)</f>
         <v>193.71240641711228</v>
       </c>
       <c r="R4" s="61">
         <v>0.69</v>
       </c>
       <c r="S4" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3478260869565258E-2</v>
       </c>
       <c r="T4" s="61">
         <v>88.52</v>
       </c>
       <c r="U4" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3429733393584017E-3</v>
       </c>
     </row>
@@ -3806,7 +3807,7 @@
         <v>0.92</v>
       </c>
       <c r="L5" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.92989247311827961</v>
       </c>
       <c r="M5" s="50">
@@ -3816,26 +3817,26 @@
         <v>0.71</v>
       </c>
       <c r="O5" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.67318518518518511</v>
       </c>
       <c r="P5" s="54"/>
       <c r="Q5" s="55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>193.73307765830347</v>
       </c>
       <c r="R5" s="50">
         <v>0.69</v>
       </c>
       <c r="S5" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.898550724637684E-2</v>
       </c>
       <c r="T5" s="50">
         <v>88.52</v>
       </c>
       <c r="U5" s="78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0835969272481117E-3</v>
       </c>
     </row>
@@ -3893,35 +3894,35 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="68">
-        <f>AVERAGE(H3:H3)</f>
+        <f t="shared" ref="H1:O1" si="0">AVERAGE(H3:H3)</f>
         <v>89.17</v>
       </c>
       <c r="I1" s="68">
-        <f>AVERAGE(I3:I3)</f>
+        <f t="shared" si="0"/>
         <v>86.74</v>
       </c>
       <c r="J1" s="68">
-        <f>AVERAGE(J3:J3)</f>
+        <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
       <c r="K1" s="68">
-        <f>AVERAGE(K3:K3)</f>
+        <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
       <c r="L1" s="68">
-        <f>AVERAGE(L3:L3)</f>
+        <f t="shared" si="0"/>
         <v>0.91826086956521746</v>
       </c>
       <c r="M1" s="68">
-        <f>AVERAGE(M3:M3)</f>
+        <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="N1" s="68">
-        <f>AVERAGE(N3:N3)</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="O1" s="68">
-        <f>AVERAGE(O3:O3)</f>
+        <f t="shared" si="0"/>
         <v>0.65882352941176481</v>
       </c>
       <c r="P1" s="27"/>
@@ -4056,14 +4057,14 @@
         <v>0.8</v>
       </c>
       <c r="S3" s="76">
-        <f t="shared" ref="S3:S5" si="0">(N3-R3)/R3</f>
+        <f t="shared" ref="S3:S4" si="1">(N3-R3)/R3</f>
         <v>0</v>
       </c>
       <c r="T3" s="61">
         <v>86.74</v>
       </c>
       <c r="U3" s="76">
-        <f t="shared" ref="U3:U5" si="1">(I3-T3)/T3</f>
+        <f t="shared" ref="U3:U4" si="2">(I3-T3)/T3</f>
         <v>0</v>
       </c>
     </row>
@@ -4102,7 +4103,7 @@
         <v>0.92</v>
       </c>
       <c r="L4" s="50">
-        <f t="shared" ref="L4:L5" si="2">(2*(J4*K4))/(J4+K4)</f>
+        <f t="shared" ref="L4" si="3">(2*(J4*K4))/(J4+K4)</f>
         <v>0.91497267759562839</v>
       </c>
       <c r="M4" s="50">
@@ -4112,26 +4113,26 @@
         <v>0.49</v>
       </c>
       <c r="O4" s="50">
-        <f t="shared" ref="O4:O5" si="3">(2*(M4*N4))/(M4+N4)</f>
+        <f t="shared" ref="O4" si="4">(2*(M4*N4))/(M4+N4)</f>
         <v>0.51826923076923082</v>
       </c>
       <c r="P4" s="54"/>
       <c r="Q4" s="55">
-        <f t="shared" ref="Q4:Q5" si="4">SUM(H4:O4)</f>
+        <f t="shared" ref="Q4" si="5">SUM(H4:O4)</f>
         <v>185.31324190836486</v>
       </c>
       <c r="R4" s="50">
         <v>0.8</v>
       </c>
       <c r="S4" s="78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.38750000000000007</v>
       </c>
       <c r="T4" s="50">
         <v>86.74</v>
       </c>
       <c r="U4" s="78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.4526170163707528E-2</v>
       </c>
     </row>
@@ -4170,7 +4171,7 @@
         <v>0.92</v>
       </c>
       <c r="L5" s="50">
-        <f t="shared" ref="L5" si="5">(2*(J5*K5))/(J5+K5)</f>
+        <f t="shared" ref="L5" si="6">(2*(J5*K5))/(J5+K5)</f>
         <v>0.91497267759562839</v>
       </c>
       <c r="M5" s="50">
@@ -4180,26 +4181,26 @@
         <v>0.49</v>
       </c>
       <c r="O5" s="50">
-        <f t="shared" ref="O5" si="6">(2*(M5*N5))/(M5+N5)</f>
+        <f t="shared" ref="O5" si="7">(2*(M5*N5))/(M5+N5)</f>
         <v>0.51826923076923082</v>
       </c>
       <c r="P5" s="54"/>
       <c r="Q5" s="55">
-        <f t="shared" ref="Q5" si="7">SUM(H5:O5)</f>
+        <f t="shared" ref="Q5" si="8">SUM(H5:O5)</f>
         <v>185.31324190836486</v>
       </c>
       <c r="R5" s="50">
         <v>0.8</v>
       </c>
       <c r="S5" s="78">
-        <f t="shared" ref="S5" si="8">(N5-R5)/R5</f>
+        <f t="shared" ref="S5" si="9">(N5-R5)/R5</f>
         <v>-0.38750000000000007</v>
       </c>
       <c r="T5" s="50">
         <v>86.74</v>
       </c>
       <c r="U5" s="78">
-        <f t="shared" ref="U5" si="9">(I5-T5)/T5</f>
+        <f t="shared" ref="U5" si="10">(I5-T5)/T5</f>
         <v>-1.4526170163707528E-2</v>
       </c>
     </row>
@@ -4257,35 +4258,35 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="68">
-        <f>AVERAGE(H3:H3)</f>
+        <f t="shared" ref="H1:O1" si="0">AVERAGE(H3:H3)</f>
         <v>90.77</v>
       </c>
       <c r="I1" s="68">
-        <f>AVERAGE(I3:I3)</f>
+        <f t="shared" si="0"/>
         <v>86.37</v>
       </c>
       <c r="J1" s="68">
-        <f>AVERAGE(J3:J3)</f>
+        <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
       <c r="K1" s="68">
-        <f>AVERAGE(K3:K3)</f>
+        <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
       <c r="L1" s="68">
-        <f>AVERAGE(L3:L3)</f>
+        <f t="shared" si="0"/>
         <v>0.91826086956521746</v>
       </c>
       <c r="M1" s="68">
-        <f>AVERAGE(M3:M3)</f>
+        <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="N1" s="68">
-        <f>AVERAGE(N3:N3)</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="O1" s="68">
-        <f>AVERAGE(O3:O3)</f>
+        <f t="shared" si="0"/>
         <v>0.6518518518518519</v>
       </c>
       <c r="P1" s="27"/>
@@ -4420,14 +4421,14 @@
         <v>0.8</v>
       </c>
       <c r="S3" s="76">
-        <f t="shared" ref="S3" si="0">(N3-R3)/R3</f>
+        <f t="shared" ref="S3" si="1">(N3-R3)/R3</f>
         <v>0</v>
       </c>
       <c r="T3" s="61">
         <v>86.37</v>
       </c>
       <c r="U3" s="76">
-        <f t="shared" ref="U3:U4" si="1">(I3-T3)/T3</f>
+        <f t="shared" ref="U3:U4" si="2">(I3-T3)/T3</f>
         <v>0</v>
       </c>
     </row>
@@ -4481,21 +4482,21 @@
       </c>
       <c r="P4" s="54"/>
       <c r="Q4" s="55">
-        <f t="shared" ref="Q4" si="2">SUM(H4:O4)</f>
+        <f t="shared" ref="Q4" si="3">SUM(H4:O4)</f>
         <v>182.46206884025068</v>
       </c>
       <c r="R4" s="50">
         <v>0.8</v>
       </c>
       <c r="S4" s="78">
-        <f t="shared" ref="S4" si="3">(N4-R4)/R4</f>
+        <f t="shared" ref="S4" si="4">(N4-R4)/R4</f>
         <v>-0.13750000000000012</v>
       </c>
       <c r="T4" s="50">
         <v>86.37</v>
       </c>
       <c r="U4" s="78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.4935741576936508E-2</v>
       </c>
     </row>
@@ -4519,7 +4520,7 @@
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4553,35 +4554,35 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="68">
-        <f>AVERAGE(H3:H5)</f>
+        <f t="shared" ref="H1:O1" si="0">AVERAGE(H3:H5)</f>
         <v>93.31</v>
       </c>
       <c r="I1" s="68">
-        <f>AVERAGE(I3:I5)</f>
+        <f t="shared" si="0"/>
         <v>87.21</v>
       </c>
       <c r="J1" s="68">
-        <f>AVERAGE(J3:J5)</f>
+        <f t="shared" si="0"/>
         <v>0.95333333333333325</v>
       </c>
       <c r="K1" s="68">
-        <f>AVERAGE(K3:K5)</f>
+        <f t="shared" si="0"/>
         <v>0.89333333333333342</v>
       </c>
       <c r="L1" s="68">
-        <f>AVERAGE(L3:L5)</f>
+        <f t="shared" si="0"/>
         <v>0.92213807074957155</v>
       </c>
       <c r="M1" s="68">
-        <f>AVERAGE(M3:M5)</f>
+        <f t="shared" si="0"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="N1" s="68">
-        <f>AVERAGE(N3:N5)</f>
+        <f t="shared" si="0"/>
         <v>0.76333333333333331</v>
       </c>
       <c r="O1" s="68">
-        <f>AVERAGE(O3:O5)</f>
+        <f t="shared" si="0"/>
         <v>0.6564372482999935</v>
       </c>
       <c r="P1" s="27"/>
@@ -4844,7 +4845,42 @@
       <c r="I6" s="51"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="I7" s="51"/>
+      <c r="H7" s="82">
+        <f>(H4-H5)/H5</f>
+        <v>-1.7626969262972286E-2</v>
+      </c>
+      <c r="I7" s="82">
+        <f t="shared" ref="I7:O7" si="1">(I4-I5)/I5</f>
+        <v>4.2838948709041369E-3</v>
+      </c>
+      <c r="J7" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="82">
+        <f t="shared" si="1"/>
+        <v>1.8181818181818195E-2</v>
+      </c>
+      <c r="N7" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="82">
+        <f t="shared" si="1"/>
+        <v>1.0695187165775475E-2</v>
+      </c>
+      <c r="S7" s="82">
+        <f>S4/S5</f>
+        <v>0.55163043478260876</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:Q5">
@@ -5445,7 +5481,7 @@
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:L11"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7910,7 +7946,7 @@
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8417,7 +8453,7 @@
       </c>
       <c r="O11" s="53"/>
     </row>
-    <row r="12" spans="1:15" ht="32.5" hidden="1" customHeight="1">
+    <row r="12" spans="1:15" ht="32.5" customHeight="1">
       <c r="A12" s="57" t="s">
         <v>111</v>
       </c>
@@ -8651,7 +8687,7 @@
       </c>
       <c r="O16" s="53"/>
     </row>
-    <row r="17" spans="1:15" ht="32.5" hidden="1" customHeight="1">
+    <row r="17" spans="1:15" ht="32.5" customHeight="1">
       <c r="A17" s="57" t="s">
         <v>111</v>
       </c>
@@ -9255,11 +9291,7 @@
     <filterColumn colId="1">
       <colorFilter dxfId="0"/>
     </filterColumn>
-    <filterColumn colId="12">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
+    <filterColumn colId="12"/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9274,7 +9306,7 @@
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9816,13 +9848,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10014,7 +10045,7 @@
         <v>-2.2106775726760566E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="32.5" hidden="1" customHeight="1">
+    <row r="4" spans="1:19" ht="32.5" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>111</v>
       </c>
@@ -10204,7 +10235,7 @@
         <v>-1.4869038087613076E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="32.5" hidden="1" customHeight="1">
+    <row r="7" spans="1:19" ht="32.5" customHeight="1">
       <c r="A7" s="24" t="s">
         <v>112</v>
       </c>
@@ -10404,11 +10435,7 @@
   <autoFilter ref="A2:O9">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
-    <filterColumn colId="13">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
+    <filterColumn colId="13"/>
   </autoFilter>
   <conditionalFormatting sqref="F3:F9">
     <cfRule type="colorScale" priority="11">
